--- a/deployment/Omaha_Cal_Info_CE09OSSM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSSM_00002.xlsx
@@ -21,7 +21,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -402,9 +402,6 @@
     <t>CE09OSSM-RID27-04-DOSTAD000</t>
   </si>
   <si>
-    <t>CE09OSSM-MFD37-04-DOSTAD000</t>
-  </si>
-  <si>
     <t>CE09OSSM-RID27-07-NUTNRB000</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
   </si>
   <si>
     <t>CE09OSSM-MFD35-02-PRESFC000</t>
-  </si>
-  <si>
-    <t>CE09OSSM-MFD37-00-ZPLSCC000</t>
   </si>
   <si>
     <t>CE09OSSM-00001-CPM1</t>
@@ -636,9 +630,6 @@
     <t>[3.15137E-03, 1.33120E-04, 2.60842E-06, 2.32470E02, -3.12918E-01, -5.73390E01, 4.54363E00]</t>
   </si>
   <si>
-    <t>CE09OSSM-MFD00-00-CAMDSA000</t>
-  </si>
-  <si>
     <t>from SBE offset_correction pdf</t>
   </si>
   <si>
@@ -785,6 +776,15 @@
   <si>
     <t>N00738</t>
   </si>
+  <si>
+    <t>CE09OSSM-MFD37-06-CAMDSA000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-MFD37-07-ZPLSCC000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-MFD37-03-DOSTAD000</t>
+  </si>
 </sst>
 </file>
 
@@ -796,7 +796,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1892,10 +1892,10 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="16" customWidth="1"/>
     <col min="2" max="2" width="16" style="16" bestFit="1" customWidth="1"/>
@@ -1914,9 +1914,9 @@
     <col min="15" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="41.45">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1952,15 +1952,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -1971,18 +1971,20 @@
       <c r="F2" s="37">
         <v>0.96250000000000002</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="15">
+        <v>42497</v>
+      </c>
       <c r="H2" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J2" s="34">
         <v>542</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="35">
@@ -1994,22 +1996,22 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="14.45">
+    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="14.45">
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
     </row>
-    <row r="6" spans="1:14" customFormat="1" ht="14.45">
+    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
     </row>
-    <row r="7" spans="1:14" customFormat="1" ht="14.45">
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
     </row>
-    <row r="8" spans="1:14" customFormat="1" ht="14.45">
+    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
     </row>
-    <row r="9" spans="1:14" customFormat="1" ht="14.45">
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
     </row>
   </sheetData>
@@ -2024,11 +2026,11 @@
   <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E11"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="8" customWidth="1"/>
@@ -2039,17 +2041,18 @@
     <col min="7" max="7" width="49.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.7109375" style="1" customWidth="1"/>
-    <col min="10" max="12" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="28.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" style="1"/>
     <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="27.6">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>1</v>
@@ -2058,7 +2061,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>2</v>
@@ -2073,7 +2076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2081,24 +2084,24 @@
       <c r="E2" s="3"/>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>5</v>
@@ -2107,27 +2110,27 @@
         <v>46.85313166666667</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>6</v>
@@ -2137,24 +2140,24 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>35</v>
@@ -2163,27 +2166,27 @@
         <v>1.35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>36</v>
@@ -2192,27 +2195,27 @@
         <v>3.76</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>37</v>
@@ -2221,27 +2224,27 @@
         <v>3.76</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>38</v>
@@ -2250,27 +2253,27 @@
         <v>4.33</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>39</v>
@@ -2279,27 +2282,27 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>40</v>
@@ -2308,27 +2311,27 @@
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>41</v>
@@ -2337,123 +2340,123 @@
         <v>600</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="13.9">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="14.45">
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="13.9">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F14" s="44"/>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" ht="14.45">
+    <row r="15" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D15" s="8">
         <v>2</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="13.9">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F16" s="43"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D17" s="8">
         <v>2</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="22"/>
       <c r="I17" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="22"/>
       <c r="I19" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.9">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>5</v>
@@ -2462,24 +2465,24 @@
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>6</v>
@@ -2488,27 +2491,27 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" ht="13.9">
+    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F23" s="43"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>5</v>
@@ -2517,24 +2520,24 @@
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>6</v>
@@ -2543,24 +2546,24 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="8" customFormat="1" ht="14.45">
+    <row r="27" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F27" s="45">
         <v>22717</v>
@@ -2572,24 +2575,24 @@
         <v>7000</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="8" customFormat="1" ht="14.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F28" s="45">
         <v>22717</v>
@@ -2601,21 +2604,21 @@
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="8" customFormat="1" ht="14.45">
+    <row r="29" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D29" s="8">
         <v>2</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F29" s="45">
         <v>22717</v>
@@ -2627,21 +2630,21 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="8" customFormat="1" ht="14.45">
+    <row r="30" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D30" s="8">
         <v>2</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F30" s="45">
         <v>22717</v>
@@ -2653,21 +2656,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="8" customFormat="1" ht="14.45">
+    <row r="31" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D31" s="8">
         <v>2</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F31" s="45">
         <v>22717</v>
@@ -2679,21 +2682,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="8" customFormat="1" ht="14.45">
+    <row r="32" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D32" s="8">
         <v>2</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F32" s="45">
         <v>22717</v>
@@ -2705,21 +2708,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="8" customFormat="1" ht="14.45">
+    <row r="33" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D33" s="8">
         <v>2</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F33" s="45">
         <v>22717</v>
@@ -2731,27 +2734,27 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="8" customFormat="1" ht="13.9">
+    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="1:8" ht="14.45">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="8">
         <v>2</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>5</v>
@@ -2760,24 +2763,24 @@
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="36" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D36" s="8">
         <v>2</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>6</v>
@@ -2786,24 +2789,24 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="37" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D37" s="8">
         <v>2</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>76</v>
@@ -2812,24 +2815,24 @@
         <v>1.2845840000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="38" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>77</v>
@@ -2838,24 +2841,24 @@
         <v>2.6594999999999999E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="39" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D39" s="8">
         <v>2</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>78</v>
@@ -2864,24 +2867,24 @@
         <v>-1.6834599999999999E-7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="40" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D40" s="8">
         <v>2</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>79</v>
@@ -2890,24 +2893,24 @@
         <v>1.41344E-7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="41" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D41" s="8">
         <v>2</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>80</v>
@@ -2916,24 +2919,24 @@
         <v>-58.855928400000003</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="42" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D42" s="8">
         <v>2</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>81</v>
@@ -2942,24 +2945,24 @@
         <v>54.258059099999997</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="43" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D43" s="8">
         <v>2</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>82</v>
@@ -2968,24 +2971,24 @@
         <v>-0.55807975700000001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="44" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D44" s="8">
         <v>2</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>83</v>
@@ -2994,24 +2997,24 @@
         <v>524689.77800000005</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="45" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D45" s="8">
         <v>2</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>84</v>
@@ -3020,24 +3023,24 @@
         <v>-20.77497</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="46" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D46" s="8">
         <v>2</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>85</v>
@@ -3046,24 +3049,24 @@
         <v>0.26732213900000001</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="47" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47" s="8">
         <v>2</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>86</v>
@@ -3072,24 +3075,24 @@
         <v>25.026250000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="48" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8">
         <v>2</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>87</v>
@@ -3098,24 +3101,24 @@
         <v>-3.5E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="7" customFormat="1" ht="14.45">
+    <row r="49" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8">
         <v>2</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>88</v>
@@ -3124,24 +3127,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" ht="14.45">
+    <row r="50" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8">
         <v>2</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>89</v>
@@ -3150,24 +3153,24 @@
         <v>-0.164016417</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" ht="14.45">
+    <row r="51" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8">
         <v>2</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>90</v>
@@ -3176,24 +3179,24 @@
         <v>4.8962500000000004E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" ht="14.45">
+    <row r="52" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8">
         <v>2</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>91</v>
@@ -3202,24 +3205,24 @@
         <v>-8.0475599999999993E-12</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="7" customFormat="1" ht="14.45">
+    <row r="53" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8">
         <v>2</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>92</v>
@@ -3228,24 +3231,24 @@
         <v>-0.97157990000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="7" customFormat="1" ht="14.45">
+    <row r="54" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8">
         <v>2</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>93</v>
@@ -3254,24 +3257,24 @@
         <v>0.13846729999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="7" customFormat="1" ht="14.45">
+    <row r="55" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8">
         <v>2</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>94</v>
@@ -3280,24 +3283,24 @@
         <v>-2.4174299999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="7" customFormat="1" ht="14.45">
+    <row r="56" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D56" s="8">
         <v>2</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F56" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>95</v>
@@ -3306,24 +3309,24 @@
         <v>3.6677600000000003E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="7" customFormat="1" ht="14.45">
+    <row r="57" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D57" s="8">
         <v>2</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F57" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>96</v>
@@ -3332,24 +3335,24 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="58" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D58" s="8">
         <v>2</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>97</v>
@@ -3358,24 +3361,24 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="8" customFormat="1">
+    <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F59" s="43"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D60" s="8">
         <v>2</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F60" s="45">
         <v>219</v>
@@ -3387,21 +3390,21 @@
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D61" s="8">
         <v>2</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F61" s="45">
         <v>219</v>
@@ -3413,21 +3416,21 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="62" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D62" s="8">
         <v>2</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F62" s="45">
         <v>219</v>
@@ -3436,57 +3439,57 @@
         <v>11</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D63" s="8">
         <v>2</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F63" s="45">
         <v>219</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D64" s="8"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D65" s="8">
         <v>2</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F65" s="45">
         <v>1291</v>
@@ -3498,21 +3501,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D66" s="8">
         <v>2</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F66" s="45">
         <v>1291</v>
@@ -3524,21 +3527,21 @@
         <v>1.8390000000000001E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D67" s="8">
         <v>2</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F67" s="45">
         <v>1291</v>
@@ -3550,21 +3553,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D68" s="8">
         <v>2</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F68" s="45">
         <v>1291</v>
@@ -3576,21 +3579,21 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D69" s="8">
         <v>2</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F69" s="45">
         <v>1291</v>
@@ -3602,21 +3605,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D70" s="8">
         <v>2</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F70" s="45">
         <v>1291</v>
@@ -3628,21 +3631,21 @@
         <v>9.0700000000000003E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D71" s="8">
         <v>2</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F71" s="45">
         <v>1291</v>
@@ -3654,24 +3657,24 @@
         <v>124</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D72" s="8">
         <v>2</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F72" s="45">
         <v>1291</v>
@@ -3686,21 +3689,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D73" s="8">
         <v>2</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F73" s="45">
         <v>1291</v>
@@ -3712,24 +3715,24 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D74" s="8">
         <v>2</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F74" s="45">
         <v>1291</v>
@@ -3744,25 +3747,25 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D75" s="8"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D76" s="8">
         <v>2</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F76" s="45">
         <v>254</v>
@@ -3777,21 +3780,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D77" s="8">
         <v>2</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F77" s="45">
         <v>254</v>
@@ -3806,21 +3809,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D78" s="8">
         <v>2</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F78" s="45">
         <v>254</v>
@@ -3832,21 +3835,21 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D79" s="8">
         <v>2</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F79" s="45">
         <v>254</v>
@@ -3855,24 +3858,24 @@
         <v>47</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D80" s="8">
         <v>2</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F80" s="45">
         <v>254</v>
@@ -3881,24 +3884,24 @@
         <v>48</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D81" s="8">
         <v>2</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F81" s="45">
         <v>254</v>
@@ -3907,24 +3910,24 @@
         <v>49</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D82" s="8">
         <v>2</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F82" s="45">
         <v>254</v>
@@ -3933,85 +3936,85 @@
         <v>50</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D83" s="8"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D84" s="8">
         <v>2</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D85" s="8">
         <v>2</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>102</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D86" s="8">
         <v>2</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>42</v>
@@ -4020,157 +4023,157 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D87" s="8">
         <v>2</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D88" s="8">
         <v>2</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D89" s="8">
         <v>2</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>104</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D90" s="8">
         <v>2</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="6" customFormat="1" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D91" s="8">
         <v>2</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>106</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D93" s="1">
         <v>2</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F93" s="45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>14</v>
@@ -4179,24 +4182,24 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D94" s="8">
         <v>2</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F94" s="45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>16</v>
@@ -4205,24 +4208,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D95" s="8">
         <v>2</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F95" s="45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>15</v>
@@ -4231,24 +4234,24 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D96" s="8">
         <v>2</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F96" s="45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>17</v>
@@ -4257,24 +4260,24 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D97" s="8">
         <v>2</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F97" s="45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>19</v>
@@ -4283,27 +4286,27 @@
         <v>0</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D98" s="8">
         <v>2</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F98" s="45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>18</v>
@@ -4312,27 +4315,27 @@
         <v>1</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="8" customFormat="1" ht="15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D99" s="8">
         <v>2</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>100</v>
@@ -4341,27 +4344,27 @@
         <v>35</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D101" s="8">
         <v>2</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F101" s="45">
         <v>254</v>
@@ -4370,24 +4373,24 @@
         <v>51</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D102" s="8">
         <v>2</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F102" s="45">
         <v>254</v>
@@ -4396,24 +4399,24 @@
         <v>52</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D103" s="8">
         <v>2</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F103" s="45">
         <v>254</v>
@@ -4422,31 +4425,31 @@
         <v>53</v>
       </c>
       <c r="H103" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="8" customFormat="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F104" s="43"/>
       <c r="H104" s="27"/>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>5</v>
@@ -4455,24 +4458,24 @@
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D106" s="1">
         <v>2</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>6</v>
@@ -4481,24 +4484,24 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D108" s="8">
         <v>2</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F108" s="45">
         <v>22649</v>
@@ -4510,24 +4513,24 @@
         <v>542000</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D109" s="8">
         <v>2</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F109" s="45">
         <v>22649</v>
@@ -4539,21 +4542,21 @@
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D110" s="8">
         <v>2</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F110" s="45">
         <v>22649</v>
@@ -4565,21 +4568,21 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D111" s="8">
         <v>2</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F111" s="45">
         <v>22649</v>
@@ -4591,21 +4594,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D112" s="8">
         <v>2</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F112" s="45">
         <v>22649</v>
@@ -4617,21 +4620,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15">
+    <row r="113" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D113" s="8">
         <v>2</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F113" s="45">
         <v>22649</v>
@@ -4643,21 +4646,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15">
+    <row r="114" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D114" s="8">
         <v>2</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F114" s="45">
         <v>22649</v>
@@ -4669,51 +4672,51 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="1:13" s="8" customFormat="1">
+    <row r="116" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F116" s="43"/>
       <c r="I116" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L116" s="8">
         <v>2</v>
       </c>
       <c r="M116" s="23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" s="8" customFormat="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F117" s="43"/>
     </row>
-    <row r="118" spans="1:13" ht="15">
+    <row r="118" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D118" s="8">
         <v>2</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F118" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>5</v>
@@ -4722,24 +4725,24 @@
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15">
+    <row r="119" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D119" s="8">
         <v>2</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F119" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>6</v>
@@ -4748,24 +4751,24 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="120" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D120" s="8">
         <v>2</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F120" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>76</v>
@@ -4774,24 +4777,24 @@
         <v>1.2499552599999999E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="121" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D121" s="8">
         <v>2</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F121" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G121" s="8" t="s">
         <v>77</v>
@@ -4800,24 +4803,24 @@
         <v>2.7464309900000002E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="122" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D122" s="8">
         <v>2</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F122" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>78</v>
@@ -4826,24 +4829,24 @@
         <v>-1.11866702E-6</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="123" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D123" s="8">
         <v>2</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F123" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>79</v>
@@ -4852,24 +4855,24 @@
         <v>1.8011126299999999E-7</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="124" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D124" s="8">
         <v>2</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F124" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>80</v>
@@ -4878,24 +4881,24 @@
         <v>-73.593434700000003</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="125" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D125" s="8">
         <v>2</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F125" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>81</v>
@@ -4904,24 +4907,24 @@
         <v>53.418779200000003</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="126" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D126" s="8">
         <v>2</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F126" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>82</v>
@@ -4930,24 +4933,24 @@
         <v>-0.72569349599999999</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="127" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D127" s="8">
         <v>2</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F127" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>83</v>
@@ -4956,24 +4959,24 @@
         <v>524344.28899999999</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="128" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D128" s="8">
         <v>2</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F128" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>84</v>
@@ -4982,24 +4985,24 @@
         <v>329.99508100000003</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="129" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D129" s="8">
         <v>2</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F129" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>85</v>
@@ -5008,24 +5011,24 @@
         <v>-5.74400814</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="130" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D130" s="8">
         <v>2</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F130" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>86</v>
@@ -5034,24 +5037,24 @@
         <v>25.032</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="131" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D131" s="8">
         <v>2</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F131" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>87</v>
@@ -5060,27 +5063,27 @@
         <v>0</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="8" customFormat="1" ht="15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D132" s="8">
         <v>2</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F132" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>88</v>
@@ -5089,24 +5092,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="133" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D133" s="8">
         <v>2</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F133" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G133" s="8" t="s">
         <v>89</v>
@@ -5115,24 +5118,24 @@
         <v>12.015601699999999</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="134" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D134" s="8">
         <v>2</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F134" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>90</v>
@@ -5141,24 +5144,24 @@
         <v>2.6457985200000001E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="135" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D135" s="8">
         <v>2</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F135" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>91</v>
@@ -5167,24 +5170,24 @@
         <v>2.6006146200000001E-11</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="136" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D136" s="8">
         <v>2</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F136" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>92</v>
@@ -5193,24 +5196,24 @@
         <v>-0.99735000100000004</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="137" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D137" s="8">
         <v>2</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F137" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>93</v>
@@ -5219,24 +5222,24 @@
         <v>0.14975640200000001</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="138" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D138" s="8">
         <v>2</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F138" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>94</v>
@@ -5245,24 +5248,24 @@
         <v>-2.3753292199999999E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="139" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D139" s="8">
         <v>2</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F139" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>95</v>
@@ -5271,24 +5274,24 @@
         <v>3.9405609399999999E-5</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="140" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D140" s="8">
         <v>2</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F140" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>96</v>
@@ -5297,24 +5300,24 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="141" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D141" s="8">
         <v>2</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F141" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>97</v>
@@ -5323,25 +5326,25 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D142" s="8"/>
       <c r="G142" s="8"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D143" s="8">
         <v>2</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F143" s="45">
         <v>478</v>
@@ -5353,21 +5356,21 @@
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D144" s="8">
         <v>2</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F144" s="45">
         <v>478</v>
@@ -5379,21 +5382,21 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D145" s="8">
         <v>2</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F145" s="45">
         <v>478</v>
@@ -5402,112 +5405,112 @@
         <v>11</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="8" customFormat="1" ht="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D146" s="8">
         <v>2</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F146" s="45">
         <v>478</v>
       </c>
       <c r="G146" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H146" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I146" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H146" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="I146" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D147" s="8"/>
       <c r="G147" s="8"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D148" s="8">
         <v>2</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F148" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H148" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D149" s="8">
         <v>2</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F149" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G149" s="8" t="s">
         <v>102</v>
       </c>
       <c r="H149" s="27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D150" s="8">
         <v>2</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F150" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>42</v>
@@ -5516,158 +5519,158 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D151" s="8">
         <v>2</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F151" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D152" s="8">
         <v>2</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F152" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H152" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D153" s="8">
         <v>2</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F153" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>104</v>
       </c>
       <c r="H153" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D154" s="8">
         <v>2</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F154" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H154" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D155" s="8">
         <v>2</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H155" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D156" s="8"/>
       <c r="G156" s="8"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D157" s="8">
         <v>2</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F157" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>70</v>
@@ -5676,24 +5679,24 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D158" s="8">
         <v>2</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F158" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>71</v>
@@ -5702,24 +5705,24 @@
         <v>0.59109999999999996</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D159" s="8">
         <v>2</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F159" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>72</v>
@@ -5728,24 +5731,24 @@
         <v>-1.5395000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D160" s="8">
         <v>2</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F160" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>73</v>
@@ -5754,24 +5757,24 @@
         <v>14.9986</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D161" s="8">
         <v>2</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F161" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>14</v>
@@ -5780,27 +5783,27 @@
         <v>19706</v>
       </c>
       <c r="I161" s="30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D162" s="8">
         <v>2</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F162" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>74</v>
@@ -5809,27 +5812,27 @@
         <v>34</v>
       </c>
       <c r="I162" s="31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D163" s="8">
         <v>2</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F163" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>15</v>
@@ -5839,24 +5842,24 @@
       </c>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D164" s="8">
         <v>2</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F164" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>75</v>
@@ -5866,27 +5869,27 @@
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D165" s="8"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D166" s="8">
         <v>2</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F166" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>14</v>
@@ -5895,24 +5898,24 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D167" s="8">
         <v>2</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F167" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>16</v>
@@ -5921,24 +5924,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D168" s="8">
         <v>2</v>
       </c>
       <c r="E168" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F168" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G168" s="8" t="s">
         <v>15</v>
@@ -5947,24 +5950,24 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D169" s="8">
         <v>2</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F169" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G169" s="8" t="s">
         <v>17</v>
@@ -5973,24 +5976,24 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D170" s="8">
         <v>2</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F170" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G170" s="8" t="s">
         <v>19</v>
@@ -5999,27 +6002,27 @@
         <v>0</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D171" s="8">
         <v>2</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F171" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G171" s="8" t="s">
         <v>18</v>
@@ -6028,27 +6031,27 @@
         <v>1</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" s="8" customFormat="1" ht="15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B172" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D172" s="8">
         <v>2</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F172" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G172" s="8" t="s">
         <v>100</v>
@@ -6057,30 +6060,30 @@
         <v>35</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G173" s="8"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D174" s="8">
         <v>2</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F174" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>56</v>
@@ -6089,27 +6092,27 @@
         <v>-4631.5259999999998</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B175" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D175" s="8">
         <v>2</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F175" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>57</v>
@@ -6118,27 +6121,27 @@
         <v>35.767060000000001</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B176" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D176" s="8">
         <v>2</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>58</v>
@@ -6147,24 +6150,24 @@
         <v>13013.89</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D177" s="8">
         <v>2</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>59</v>
@@ -6173,24 +6176,24 @@
         <v>7.0046999999999998E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B178" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D178" s="8">
         <v>2</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>60</v>
@@ -6199,24 +6202,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D179" s="8">
         <v>2</v>
       </c>
       <c r="E179" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>54</v>
@@ -6228,24 +6231,24 @@
         <v>111</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B180" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D180" s="8">
         <v>2</v>
       </c>
       <c r="E180" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F180" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>61</v>
@@ -6254,27 +6257,27 @@
         <v>-0.38400000000000001</v>
       </c>
       <c r="I180" s="33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D181" s="8">
         <v>2</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>55</v>
@@ -6286,24 +6289,24 @@
         <v>111</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D182" s="8">
         <v>2</v>
       </c>
       <c r="E182" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F182" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>62</v>
@@ -6312,24 +6315,24 @@
         <v>30.151720000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D183" s="8">
         <v>2</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F183" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>63</v>
@@ -6338,24 +6341,24 @@
         <v>0.63704700000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D184" s="8">
         <v>2</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F184" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>64</v>
@@ -6364,24 +6367,24 @@
         <v>43.948039999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D185" s="8">
         <v>2</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F185" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>65</v>
@@ -6390,24 +6393,24 @@
         <v>107.149</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D186" s="8">
         <v>2</v>
       </c>
       <c r="E186" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F186" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>66</v>
@@ -6416,24 +6419,24 @@
         <v>5.8312720000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D187" s="8">
         <v>2</v>
       </c>
       <c r="E187" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F187" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>67</v>
@@ -6442,24 +6445,24 @@
         <v>-3939.6460000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D188" s="8">
         <v>2</v>
       </c>
       <c r="E188" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F188" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>68</v>
@@ -6468,24 +6471,24 @@
         <v>-10461.549999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D189" s="8">
         <v>2</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F189" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>69</v>
@@ -6494,24 +6497,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="190" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D190" s="8">
         <v>2</v>
       </c>
       <c r="E190" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F190" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G190" s="8" t="s">
         <v>98</v>
@@ -6520,24 +6523,24 @@
         <v>838.8</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="191" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D191" s="8">
         <v>2</v>
       </c>
       <c r="E191" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F191" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G191" s="8" t="s">
         <v>99</v>
@@ -6546,24 +6549,24 @@
         <v>12582.9</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D192" s="8"/>
     </row>
-    <row r="193" spans="1:9" customFormat="1" ht="15">
+    <row r="193" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D193" s="8">
         <v>2</v>
       </c>
       <c r="E193" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F193" s="45">
         <v>12607</v>
@@ -6575,21 +6578,21 @@
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="194" spans="1:9" customFormat="1" ht="15">
+    <row r="194" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D194" s="8">
         <v>2</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F194" s="45">
         <v>12607</v>
@@ -6601,223 +6604,223 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="195" spans="1:9" customFormat="1" ht="15">
+    <row r="195" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B195" s="26"/>
       <c r="C195" s="24"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="39"/>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D196" s="8">
         <v>2</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F196" s="45">
         <v>55096</v>
       </c>
       <c r="H196" s="22"/>
       <c r="I196" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="8" customFormat="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F197" s="43"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D198" s="8">
         <v>2</v>
       </c>
       <c r="F198" s="44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I198" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D199" s="8">
         <v>2</v>
       </c>
       <c r="F199" s="44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I199" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D200" s="8">
         <v>2</v>
       </c>
       <c r="F200" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I200" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D201" s="8"/>
       <c r="F201" s="44"/>
       <c r="I201" s="19"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D202" s="8">
         <v>2</v>
       </c>
       <c r="F202" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I202" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D203" s="8">
         <v>2</v>
       </c>
       <c r="F203" s="44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I203" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D204" s="8">
         <v>2</v>
       </c>
       <c r="F204" s="44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I204" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D205" s="8">
         <v>2</v>
       </c>
       <c r="F205" s="44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I205" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D206" s="8">
         <v>2</v>
       </c>
       <c r="F206" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="I206" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="I206" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="15">
+    </row>
+    <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D207" s="8">
         <v>2</v>
       </c>
       <c r="F207" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I207" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6834,12 +6837,12 @@
       <selection sqref="A1:AI85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
         <v>-4.2207000000000001E-2</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>1.3034E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="14.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>-4.0453000000000003E-2</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>1.1202999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="14.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>-3.8245000000000001E-2</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v>8.2480000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>-3.5306999999999998E-2</v>
       </c>
@@ -7267,7 +7270,7 @@
         <v>6.4060000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="14.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>-3.2643999999999999E-2</v>
       </c>
@@ -7374,7 +7377,7 @@
         <v>5.3420000000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="14.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>-3.0387000000000001E-2</v>
       </c>
@@ -7481,7 +7484,7 @@
         <v>4.4229999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="14.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>-2.8086E-2</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>3.6129999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="14.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>-2.7503E-2</v>
       </c>
@@ -7695,7 +7698,7 @@
         <v>3.395E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="14.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>-2.5902000000000001E-2</v>
       </c>
@@ -7802,7 +7805,7 @@
         <v>2.807E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>-2.4580999999999999E-2</v>
       </c>
@@ -7909,7 +7912,7 @@
         <v>2.696E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="14.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>-2.3791E-2</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>2.568E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="14.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>-2.2397E-2</v>
       </c>
@@ -8123,7 +8126,7 @@
         <v>2.2620000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="14.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>-2.1704000000000001E-2</v>
       </c>
@@ -8230,7 +8233,7 @@
         <v>2.1689999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="14.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>-2.1264000000000002E-2</v>
       </c>
@@ -8337,7 +8340,7 @@
         <v>2.0569999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>-2.0229E-2</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>1.7440000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>-1.9852999999999999E-2</v>
       </c>
@@ -8551,7 +8554,7 @@
         <v>1.7930000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="14.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>-1.9129E-2</v>
       </c>
@@ -8658,7 +8661,7 @@
         <v>1.7440000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="14.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>-1.8842999999999999E-2</v>
       </c>
@@ -8765,7 +8768,7 @@
         <v>1.593E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="14.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>-1.8353000000000001E-2</v>
       </c>
@@ -8872,7 +8875,7 @@
         <v>1.6280000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="14.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>-1.8048000000000002E-2</v>
       </c>
@@ -8979,7 +8982,7 @@
         <v>1.495E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="14.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>-1.7580999999999999E-2</v>
       </c>
@@ -9086,7 +9089,7 @@
         <v>1.5169999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="14.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>-1.7510999999999999E-2</v>
       </c>
@@ -9193,7 +9196,7 @@
         <v>1.4630000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="14.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>-1.6955000000000001E-2</v>
       </c>
@@ -9300,7 +9303,7 @@
         <v>1.3550000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="14.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>-1.6802000000000001E-2</v>
       </c>
@@ -9407,7 +9410,7 @@
         <v>1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="14.45">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>-1.6802000000000001E-2</v>
       </c>
@@ -9514,7 +9517,7 @@
         <v>1.273E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="14.45">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>-1.6286999999999999E-2</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="14.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>-1.6352999999999999E-2</v>
       </c>
@@ -9728,7 +9731,7 @@
         <v>1.346E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="14.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>-1.6116999999999999E-2</v>
       </c>
@@ -9835,7 +9838,7 @@
         <v>1.24E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="14.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>-1.5691E-2</v>
       </c>
@@ -9942,7 +9945,7 @@
         <v>1.2340000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="14.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>-1.54E-2</v>
       </c>
@@ -10049,7 +10052,7 @@
         <v>1.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14.45">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>-1.5136E-2</v>
       </c>
@@ -10156,7 +10159,7 @@
         <v>1.1100000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="14.45">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>-1.5129E-2</v>
       </c>
@@ -10263,7 +10266,7 @@
         <v>1.17E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="14.45">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>-1.5167E-2</v>
       </c>
@@ -10370,7 +10373,7 @@
         <v>1.186E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="14.45">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>-1.5053E-2</v>
       </c>
@@ -10477,7 +10480,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14.45">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>-1.4900999999999999E-2</v>
       </c>
@@ -10584,7 +10587,7 @@
         <v>1.1590000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="14.45">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>-1.4801999999999999E-2</v>
       </c>
@@ -10691,7 +10694,7 @@
         <v>1.1709999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>-1.4460000000000001E-2</v>
       </c>
@@ -10798,7 +10801,7 @@
         <v>1.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>-1.4043E-2</v>
       </c>
@@ -10905,7 +10908,7 @@
         <v>1.139E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>-1.3667E-2</v>
       </c>
@@ -11012,7 +11015,7 @@
         <v>1.0480000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>-1.3302E-2</v>
       </c>
@@ -11119,7 +11122,7 @@
         <v>9.9700000000000006E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>-1.2862E-2</v>
       </c>
@@ -11226,7 +11229,7 @@
         <v>9.9700000000000006E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>-1.2541E-2</v>
       </c>
@@ -11333,7 +11336,7 @@
         <v>9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>-1.2167000000000001E-2</v>
       </c>
@@ -11440,7 +11443,7 @@
         <v>8.9899999999999995E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>-1.2049000000000001E-2</v>
       </c>
@@ -11547,7 +11550,7 @@
         <v>8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>-9.9270000000000001E-3</v>
       </c>
@@ -11654,7 +11657,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>-9.9710000000000007E-3</v>
       </c>
@@ -11761,7 +11764,7 @@
         <v>4.3199999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>-9.8399999999999998E-3</v>
       </c>
@@ -11868,7 +11871,7 @@
         <v>4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>-9.9279999999999993E-3</v>
       </c>
@@ -11975,7 +11978,7 @@
         <v>4.46E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>-9.7269999999999995E-3</v>
       </c>
@@ -12082,7 +12085,7 @@
         <v>4.6500000000000003E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>-1.0097999999999999E-2</v>
       </c>
@@ -12189,7 +12192,7 @@
         <v>4.6500000000000003E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
         <v>-1.0029E-2</v>
       </c>
@@ -12296,7 +12299,7 @@
         <v>4.35E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
         <v>-9.7610000000000006E-3</v>
       </c>
@@ -12403,7 +12406,7 @@
         <v>5.0100000000000003E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="26">
         <v>-1.0118E-2</v>
       </c>
@@ -12510,7 +12513,7 @@
         <v>4.9200000000000003E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
         <v>-1.0149E-2</v>
       </c>
@@ -12617,7 +12620,7 @@
         <v>5.0500000000000002E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="26">
         <v>-1.0161E-2</v>
       </c>
@@ -12724,7 +12727,7 @@
         <v>5.3600000000000002E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="26">
         <v>-1.0201999999999999E-2</v>
       </c>
@@ -12831,7 +12834,7 @@
         <v>5.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
         <v>-1.0271000000000001E-2</v>
       </c>
@@ -12938,7 +12941,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>-1.0283E-2</v>
       </c>
@@ -13045,7 +13048,7 @@
         <v>5.8100000000000003E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
         <v>-1.0408000000000001E-2</v>
       </c>
@@ -13152,7 +13155,7 @@
         <v>5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
         <v>-1.0463E-2</v>
       </c>
@@ -13259,7 +13262,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
         <v>-1.0567999999999999E-2</v>
       </c>
@@ -13366,7 +13369,7 @@
         <v>6.4300000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>-1.0727E-2</v>
       </c>
@@ -13473,7 +13476,7 @@
         <v>6.6E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>-1.0881999999999999E-2</v>
       </c>
@@ -13580,7 +13583,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="26">
         <v>-1.1030999999999999E-2</v>
       </c>
@@ -13687,7 +13690,7 @@
         <v>6.9899999999999997E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>-1.1117E-2</v>
       </c>
@@ -13794,7 +13797,7 @@
         <v>7.3800000000000005E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>-1.1289E-2</v>
       </c>
@@ -13901,7 +13904,7 @@
         <v>7.6900000000000004E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="26">
         <v>-1.1439E-2</v>
       </c>
@@ -14008,7 +14011,7 @@
         <v>8.0800000000000002E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="26">
         <v>-1.1580999999999999E-2</v>
       </c>
@@ -14115,7 +14118,7 @@
         <v>7.3899999999999997E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="26">
         <v>-1.1611E-2</v>
       </c>
@@ -14222,7 +14225,7 @@
         <v>7.5799999999999999E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="26">
         <v>-1.1637E-2</v>
       </c>
@@ -14329,7 +14332,7 @@
         <v>8.3600000000000005E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="26">
         <v>-1.1705E-2</v>
       </c>
@@ -14436,7 +14439,7 @@
         <v>7.5699999999999997E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="26">
         <v>-1.1710999999999999E-2</v>
       </c>
@@ -14543,7 +14546,7 @@
         <v>7.4799999999999997E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="26">
         <v>-1.1854999999999999E-2</v>
       </c>
@@ -14650,7 +14653,7 @@
         <v>6.6699999999999995E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
         <v>-1.1847E-2</v>
       </c>
@@ -14757,7 +14760,7 @@
         <v>6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>-1.1925E-2</v>
       </c>
@@ -14864,7 +14867,7 @@
         <v>6.4899999999999995E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
         <v>-1.1809999999999999E-2</v>
       </c>
@@ -14971,7 +14974,7 @@
         <v>6.2E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>-1.1774E-2</v>
       </c>
@@ -15078,7 +15081,7 @@
         <v>5.7200000000000003E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>-1.146E-2</v>
       </c>
@@ -15185,7 +15188,7 @@
         <v>6.1600000000000001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>-1.1384E-2</v>
       </c>
@@ -15292,7 +15295,7 @@
         <v>5.8900000000000001E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
         <v>-1.1407E-2</v>
       </c>
@@ -15399,7 +15402,7 @@
         <v>6.02E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
         <v>-1.1486E-2</v>
       </c>
@@ -15506,7 +15509,7 @@
         <v>6.96E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
         <v>-1.1667E-2</v>
       </c>
@@ -15613,7 +15616,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
         <v>-1.1690000000000001E-2</v>
       </c>
@@ -15720,7 +15723,7 @@
         <v>7.6199999999999998E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
         <v>-1.1853000000000001E-2</v>
       </c>
@@ -15827,7 +15830,7 @@
         <v>7.6300000000000001E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
         <v>-1.1936E-2</v>
       </c>
@@ -15947,12 +15950,12 @@
       <selection sqref="A1:AI85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
         <v>2.9354999999999999E-2</v>
       </c>
@@ -16059,7 +16062,7 @@
         <v>-2.6762999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="14.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>2.0181000000000001E-2</v>
       </c>
@@ -16166,7 +16169,7 @@
         <v>-2.3185000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="14.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>1.3610000000000001E-2</v>
       </c>
@@ -16273,7 +16276,7 @@
         <v>-2.0456999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>6.0730000000000003E-3</v>
       </c>
@@ -16380,7 +16383,7 @@
         <v>-1.7604999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="14.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1.799E-3</v>
       </c>
@@ -16487,7 +16490,7 @@
         <v>-1.6514999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="14.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>-1.954E-3</v>
       </c>
@@ -16594,7 +16597,7 @@
         <v>-1.4231000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="14.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>-4.1710000000000002E-3</v>
       </c>
@@ -16701,7 +16704,7 @@
         <v>-1.2716E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="14.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>-5.1250000000000002E-3</v>
       </c>
@@ -16808,7 +16811,7 @@
         <v>-1.158E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="14.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>-7.4269999999999996E-3</v>
       </c>
@@ -16915,7 +16918,7 @@
         <v>-9.979E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>-9.1789999999999997E-3</v>
       </c>
@@ -17022,7 +17025,7 @@
         <v>-9.3259999999999992E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="14.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -17129,7 +17132,7 @@
         <v>-8.5450000000000005E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="14.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>-1.0501E-2</v>
       </c>
@@ -17236,7 +17239,7 @@
         <v>-7.5709999999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="14.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>-1.1297E-2</v>
       </c>
@@ -17343,7 +17346,7 @@
         <v>-7.0060000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="14.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>-1.0747E-2</v>
       </c>
@@ -17450,7 +17453,7 @@
         <v>-6.5389999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>-1.1502999999999999E-2</v>
       </c>
@@ -17557,7 +17560,7 @@
         <v>-5.62E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>-1.0966999999999999E-2</v>
       </c>
@@ -17664,7 +17667,7 @@
         <v>-5.176E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="14.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>-1.119E-2</v>
       </c>
@@ -17771,7 +17774,7 @@
         <v>-4.725E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="14.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>-1.1466E-2</v>
       </c>
@@ -17878,7 +17881,7 @@
         <v>-4.2360000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="14.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>-1.0585000000000001E-2</v>
       </c>
@@ -17985,7 +17988,7 @@
         <v>-3.8140000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="14.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>-1.1133000000000001E-2</v>
       </c>
@@ -18092,7 +18095,7 @@
         <v>-3.506E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="14.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>-1.0623E-2</v>
       </c>
@@ -18199,7 +18202,7 @@
         <v>-3.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="14.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>-1.0533000000000001E-2</v>
       </c>
@@ -18306,7 +18309,7 @@
         <v>-2.7569999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="14.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>-1.076E-2</v>
       </c>
@@ -18413,7 +18416,7 @@
         <v>-2.3909999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="14.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>-1.0044000000000001E-2</v>
       </c>
@@ -18520,7 +18523,7 @@
         <v>-2.3050000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="14.45">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>-9.953E-3</v>
       </c>
@@ -18627,7 +18630,7 @@
         <v>-1.8370000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="14.45">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>-1.0214000000000001E-2</v>
       </c>
@@ -18734,7 +18737,7 @@
         <v>-1.5449999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="14.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>-9.2890000000000004E-3</v>
       </c>
@@ -18841,7 +18844,7 @@
         <v>-1.5659999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="14.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>-9.1809999999999999E-3</v>
       </c>
@@ -18948,7 +18951,7 @@
         <v>-1.1950000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="14.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>-9.0279999999999996E-3</v>
       </c>
@@ -19055,7 +19058,7 @@
         <v>-1.0269999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="14.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -19162,7 +19165,7 @@
         <v>-9.2800000000000001E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14.45">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>-8.8120000000000004E-3</v>
       </c>
@@ -19269,7 +19272,7 @@
         <v>-5.5900000000000004E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="14.45">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>-8.6440000000000006E-3</v>
       </c>
@@ -19376,7 +19379,7 @@
         <v>-6.9300000000000004E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="14.45">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>-8.8079999999999999E-3</v>
       </c>
@@ -19483,7 +19486,7 @@
         <v>-3.7300000000000001E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="14.45">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>-8.6709999999999999E-3</v>
       </c>
@@ -19590,7 +19593,7 @@
         <v>-2.02E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14.45">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>-9.3310000000000008E-3</v>
       </c>
@@ -19697,7 +19700,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="14.45">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>-9.7630000000000008E-3</v>
       </c>
@@ -19804,7 +19807,7 @@
         <v>-6.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>-9.9319999999999999E-3</v>
       </c>
@@ -19911,7 +19914,7 @@
         <v>1.83E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>-9.9819999999999996E-3</v>
       </c>
@@ -20018,7 +20021,7 @@
         <v>1.7200000000000001E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>-1.0129000000000001E-2</v>
       </c>
@@ -20125,7 +20128,7 @@
         <v>3.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>-9.4249999999999994E-3</v>
       </c>
@@ -20232,7 +20235,7 @@
         <v>4.3800000000000002E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>-8.8649999999999996E-3</v>
       </c>
@@ -20339,7 +20342,7 @@
         <v>5.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>-8.1460000000000005E-3</v>
       </c>
@@ -20446,7 +20449,7 @@
         <v>7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>-7.2769999999999996E-3</v>
       </c>
@@ -20553,7 +20556,7 @@
         <v>7.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>-6.1659999999999996E-3</v>
       </c>
@@ -20660,7 +20663,7 @@
         <v>7.7099999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>-8.2249999999999997E-3</v>
       </c>
@@ -20767,7 +20770,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>-7.0679999999999996E-3</v>
       </c>
@@ -20874,7 +20877,7 @@
         <v>1.3420000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>-6.1050000000000002E-3</v>
       </c>
@@ -20981,7 +20984,7 @@
         <v>1.3389999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>-5.8640000000000003E-3</v>
       </c>
@@ -21088,7 +21091,7 @@
         <v>1.2650000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>-2.6259999999999999E-3</v>
       </c>
@@ -21195,7 +21198,7 @@
         <v>1.6169999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>-6.0169999999999998E-3</v>
       </c>
@@ -21302,7 +21305,7 @@
         <v>1.3240000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
         <v>-5.1859999999999996E-3</v>
       </c>
@@ -21409,7 +21412,7 @@
         <v>1.3910000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
         <v>-4.7019999999999996E-3</v>
       </c>
@@ -21516,7 +21519,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="26">
         <v>-4.7689999999999998E-3</v>
       </c>
@@ -21623,7 +21626,7 @@
         <v>1.454E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
         <v>-4.8329999999999996E-3</v>
       </c>
@@ -21730,7 +21733,7 @@
         <v>1.474E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="26">
         <v>-4.8630000000000001E-3</v>
       </c>
@@ -21837,7 +21840,7 @@
         <v>1.475E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="26">
         <v>-4.8910000000000004E-3</v>
       </c>
@@ -21944,7 +21947,7 @@
         <v>1.4580000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
         <v>-4.8430000000000001E-3</v>
       </c>
@@ -22051,7 +22054,7 @@
         <v>1.462E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>-4.96E-3</v>
       </c>
@@ -22158,7 +22161,7 @@
         <v>1.451E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
         <v>-4.751E-3</v>
       </c>
@@ -22265,7 +22268,7 @@
         <v>1.439E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
         <v>-4.6369999999999996E-3</v>
       </c>
@@ -22372,7 +22375,7 @@
         <v>1.436E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
         <v>-4.3160000000000004E-3</v>
       </c>
@@ -22479,7 +22482,7 @@
         <v>1.431E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>-3.9389999999999998E-3</v>
       </c>
@@ -22586,7 +22589,7 @@
         <v>1.372E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>-3.7030000000000001E-3</v>
       </c>
@@ -22693,7 +22696,7 @@
         <v>1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="26">
         <v>-3.6350000000000002E-3</v>
       </c>
@@ -22800,7 +22803,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>-3.6229999999999999E-3</v>
       </c>
@@ -22907,7 +22910,7 @@
         <v>1.2769999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>-3.209E-3</v>
       </c>
@@ -23014,7 +23017,7 @@
         <v>1.274E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="26">
         <v>-3.209E-3</v>
       </c>
@@ -23121,7 +23124,7 @@
         <v>1.1980000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="26">
         <v>-3.0509999999999999E-3</v>
       </c>
@@ -23228,7 +23231,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="26">
         <v>-3.2980000000000002E-3</v>
       </c>
@@ -23335,7 +23338,7 @@
         <v>1.1199999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="26">
         <v>-3.411E-3</v>
       </c>
@@ -23442,7 +23445,7 @@
         <v>1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="26">
         <v>-3.4299999999999999E-3</v>
       </c>
@@ -23549,7 +23552,7 @@
         <v>9.1600000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="26">
         <v>-3.6050000000000001E-3</v>
       </c>
@@ -23656,7 +23659,7 @@
         <v>9.9700000000000006E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="26">
         <v>-3.9170000000000003E-3</v>
       </c>
@@ -23763,7 +23766,7 @@
         <v>7.85E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
         <v>-3.9680000000000002E-3</v>
       </c>
@@ -23870,7 +23873,7 @@
         <v>7.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>-4.5770000000000003E-3</v>
       </c>
@@ -23977,7 +23980,7 @@
         <v>7.7099999999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
         <v>-4.313E-3</v>
       </c>
@@ -24084,7 +24087,7 @@
         <v>4.8899999999999996E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>-4.7060000000000001E-3</v>
       </c>
@@ -24191,7 +24194,7 @@
         <v>5.6400000000000005E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>-4.4840000000000001E-3</v>
       </c>
@@ -24298,7 +24301,7 @@
         <v>4.8700000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>-4.3470000000000002E-3</v>
       </c>
@@ -24405,7 +24408,7 @@
         <v>3.1199999999999999E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
         <v>-4.3530000000000001E-3</v>
       </c>
@@ -24512,7 +24515,7 @@
         <v>4.75E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
         <v>-4.385E-3</v>
       </c>
@@ -24619,7 +24622,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
         <v>-4.1669999999999997E-3</v>
       </c>
@@ -24726,7 +24729,7 @@
         <v>1.63E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
         <v>-4.2500000000000003E-3</v>
       </c>
@@ -24833,7 +24836,7 @@
         <v>3.5799999999999997E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
         <v>-4.9509999999999997E-3</v>
       </c>
@@ -24940,7 +24943,7 @@
         <v>8.5000000000000006E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
         <v>-1.153E-2</v>
       </c>
@@ -25060,12 +25063,12 @@
       <selection sqref="A1:AK85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
         <v>5.2249999999999996E-3</v>
       </c>
@@ -25178,7 +25181,7 @@
         <v>5.5789999999999998E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>6.0850000000000001E-3</v>
       </c>
@@ -25291,7 +25294,7 @@
         <v>4.2649999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="14.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>8.1080000000000006E-3</v>
       </c>
@@ -25404,7 +25407,7 @@
         <v>3.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="14.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>1.0200000000000001E-2</v>
       </c>
@@ -25517,7 +25520,7 @@
         <v>2.5460000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="14.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1.0664999999999999E-2</v>
       </c>
@@ -25630,7 +25633,7 @@
         <v>1.8580000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="14.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>1.1719E-2</v>
       </c>
@@ -25743,7 +25746,7 @@
         <v>1.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="14.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>1.2276E-2</v>
       </c>
@@ -25856,7 +25859,7 @@
         <v>9.3899999999999995E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="14.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>1.3193E-2</v>
       </c>
@@ -25969,7 +25972,7 @@
         <v>1.232E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="14.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>1.3707E-2</v>
       </c>
@@ -26082,7 +26085,7 @@
         <v>1.059E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="14.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>1.3908999999999999E-2</v>
       </c>
@@ -26195,7 +26198,7 @@
         <v>1.15E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="14.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>1.4581999999999999E-2</v>
       </c>
@@ -26308,7 +26311,7 @@
         <v>1.065E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="14.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>1.5509999999999999E-2</v>
       </c>
@@ -26421,7 +26424,7 @@
         <v>1.073E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="14.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>1.4892000000000001E-2</v>
       </c>
@@ -26534,7 +26537,7 @@
         <v>9.4200000000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="14.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>1.6136000000000001E-2</v>
       </c>
@@ -26647,7 +26650,7 @@
         <v>1.0070000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>1.6414000000000002E-2</v>
       </c>
@@ -26760,7 +26763,7 @@
         <v>7.1199999999999996E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="14.45">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>1.6289000000000001E-2</v>
       </c>
@@ -26873,7 +26876,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.45">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>1.6747999999999999E-2</v>
       </c>
@@ -26986,7 +26989,7 @@
         <v>6.9700000000000003E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="14.45">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>1.6598000000000002E-2</v>
       </c>
@@ -27099,7 +27102,7 @@
         <v>6.0499999999999996E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="14.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>1.6766E-2</v>
       </c>
@@ -27212,7 +27215,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="14.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>1.6736000000000001E-2</v>
       </c>
@@ -27325,7 +27328,7 @@
         <v>6.6500000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="14.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>1.7139999999999999E-2</v>
       </c>
@@ -27438,7 +27441,7 @@
         <v>6.4000000000000005E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="14.45">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>1.7059000000000001E-2</v>
       </c>
@@ -27551,7 +27554,7 @@
         <v>6.2200000000000005E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="14.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>1.7519E-2</v>
       </c>
@@ -27664,7 +27667,7 @@
         <v>6.38E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="14.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>1.7611000000000002E-2</v>
       </c>
@@ -27777,7 +27780,7 @@
         <v>5.9699999999999998E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="14.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>1.7544000000000001E-2</v>
       </c>
@@ -27890,7 +27893,7 @@
         <v>6.3000000000000003E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="14.45">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>1.7967E-2</v>
       </c>
@@ -28003,7 +28006,7 @@
         <v>7.0600000000000003E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="14.45">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>1.7933999999999999E-2</v>
       </c>
@@ -28116,7 +28119,7 @@
         <v>7.3300000000000004E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="14.45">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>1.8041000000000001E-2</v>
       </c>
@@ -28229,7 +28232,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="14.45">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>1.8200999999999998E-2</v>
       </c>
@@ -28342,7 +28345,7 @@
         <v>8.3600000000000005E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="14.45">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>1.8268E-2</v>
       </c>
@@ -28455,7 +28458,7 @@
         <v>9.01E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="14.45">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>1.8359E-2</v>
       </c>
@@ -28568,7 +28571,7 @@
         <v>9.1100000000000003E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="14.45">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>1.8346000000000001E-2</v>
       </c>
@@ -28681,7 +28684,7 @@
         <v>1.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="14.45">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>1.7979999999999999E-2</v>
       </c>
@@ -28794,7 +28797,7 @@
         <v>1.021E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.45">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>1.787E-2</v>
       </c>
@@ -28907,7 +28910,7 @@
         <v>1.194E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="14.45">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>1.7590000000000001E-2</v>
       </c>
@@ -29020,7 +29023,7 @@
         <v>1.212E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="14.45">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>1.7297E-2</v>
       </c>
@@ -29133,7 +29136,7 @@
         <v>1.24E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>1.7245E-2</v>
       </c>
@@ -29246,7 +29249,7 @@
         <v>1.207E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>1.7131E-2</v>
       </c>
@@ -29359,7 +29362,7 @@
         <v>1.088E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>1.6962999999999999E-2</v>
       </c>
@@ -29472,7 +29475,7 @@
         <v>9.3499999999999996E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>1.6709000000000002E-2</v>
       </c>
@@ -29585,7 +29588,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>1.6257000000000001E-2</v>
       </c>
@@ -29698,7 +29701,7 @@
         <v>7.7800000000000005E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>1.5851000000000001E-2</v>
       </c>
@@ -29811,7 +29814,7 @@
         <v>8.0199999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>1.5382E-2</v>
       </c>
@@ -29924,7 +29927,7 @@
         <v>9.1E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>1.4884E-2</v>
       </c>
@@ -30037,7 +30040,7 @@
         <v>9.59E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>1.4597000000000001E-2</v>
       </c>
@@ -30150,7 +30153,7 @@
         <v>1.168E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>1.4309000000000001E-2</v>
       </c>
@@ -30263,7 +30266,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>1.265E-2</v>
       </c>
@@ -30376,7 +30379,7 @@
         <v>1.74E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>1.2508E-2</v>
       </c>
@@ -30489,7 +30492,7 @@
         <v>1.9040000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>1.2574E-2</v>
       </c>
@@ -30602,7 +30605,7 @@
         <v>1.951E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>1.2389000000000001E-2</v>
       </c>
@@ -30715,7 +30718,7 @@
         <v>2.0439999999999998E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
         <v>1.2274E-2</v>
       </c>
@@ -30828,7 +30831,7 @@
         <v>2.0219999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
         <v>1.2285000000000001E-2</v>
       </c>
@@ -30941,7 +30944,7 @@
         <v>1.9819999999999998E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="26">
         <v>1.2321E-2</v>
       </c>
@@ -31054,7 +31057,7 @@
         <v>2.0590000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
         <v>1.2326E-2</v>
       </c>
@@ -31167,7 +31170,7 @@
         <v>1.8730000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="26">
         <v>1.2238000000000001E-2</v>
       </c>
@@ -31280,7 +31283,7 @@
         <v>1.7570000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="26">
         <v>1.2042000000000001E-2</v>
       </c>
@@ -31393,7 +31396,7 @@
         <v>1.7489999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
         <v>1.1998E-2</v>
       </c>
@@ -31506,7 +31509,7 @@
         <v>1.73E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>1.1847E-2</v>
       </c>
@@ -31619,7 +31622,7 @@
         <v>1.745E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
         <v>1.163E-2</v>
       </c>
@@ -31732,7 +31735,7 @@
         <v>1.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
         <v>1.1560000000000001E-2</v>
       </c>
@@ -31845,7 +31848,7 @@
         <v>1.781E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
         <v>1.1349E-2</v>
       </c>
@@ -31958,7 +31961,7 @@
         <v>1.696E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>1.1325E-2</v>
       </c>
@@ -32071,7 +32074,7 @@
         <v>1.8220000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>1.1315E-2</v>
       </c>
@@ -32184,7 +32187,7 @@
         <v>1.8450000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="26">
         <v>1.0958000000000001E-2</v>
       </c>
@@ -32297,7 +32300,7 @@
         <v>1.9009999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>1.0664E-2</v>
       </c>
@@ -32410,7 +32413,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>1.0629E-2</v>
       </c>
@@ -32523,7 +32526,7 @@
         <v>1.9120000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="26">
         <v>1.0541999999999999E-2</v>
       </c>
@@ -32636,7 +32639,7 @@
         <v>1.8569999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="26">
         <v>1.06E-2</v>
       </c>
@@ -32749,7 +32752,7 @@
         <v>1.854E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="26">
         <v>1.0552000000000001E-2</v>
       </c>
@@ -32862,7 +32865,7 @@
         <v>1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="26">
         <v>1.0603E-2</v>
       </c>
@@ -32975,7 +32978,7 @@
         <v>1.704E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="26">
         <v>1.077E-2</v>
       </c>
@@ -33088,7 +33091,7 @@
         <v>1.549E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="26">
         <v>1.0874999999999999E-2</v>
       </c>
@@ -33201,7 +33204,7 @@
         <v>1.488E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="26">
         <v>1.0828000000000001E-2</v>
       </c>
@@ -33314,7 +33317,7 @@
         <v>1.3129999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
         <v>1.094E-2</v>
       </c>
@@ -33427,7 +33430,7 @@
         <v>1.1770000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>1.0754E-2</v>
       </c>
@@ -33540,7 +33543,7 @@
         <v>1.0950000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
         <v>1.0729000000000001E-2</v>
       </c>
@@ -33653,7 +33656,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>1.0742E-2</v>
       </c>
@@ -33766,7 +33769,7 @@
         <v>7.9199999999999995E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>1.0619E-2</v>
       </c>
@@ -33879,7 +33882,7 @@
         <v>7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>1.0485E-2</v>
       </c>
@@ -33992,7 +33995,7 @@
         <v>6.7500000000000004E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
         <v>1.0219000000000001E-2</v>
       </c>
@@ -34105,7 +34108,7 @@
         <v>6.7100000000000005E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
         <v>9.7350000000000006E-3</v>
       </c>
@@ -34218,7 +34221,7 @@
         <v>6.6500000000000001E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
         <v>9.3170000000000006E-3</v>
       </c>
@@ -34331,7 +34334,7 @@
         <v>6.4899999999999995E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
         <v>8.9510000000000006E-3</v>
       </c>
@@ -34444,7 +34447,7 @@
         <v>8.1400000000000005E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
         <v>8.3739999999999995E-3</v>
       </c>
@@ -34557,7 +34560,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
         <v>8.3409999999999995E-3</v>
       </c>
@@ -34683,12 +34686,12 @@
       <selection sqref="A1:AK85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
         <v>9.4631999999999994E-2</v>
       </c>
@@ -34801,7 +34804,7 @@
         <v>-2.8112999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>8.2121E-2</v>
       </c>
@@ -34914,7 +34917,7 @@
         <v>-2.5090000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="14.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>7.0622000000000004E-2</v>
       </c>
@@ -35027,7 +35030,7 @@
         <v>-2.1267000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="14.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>6.3015000000000002E-2</v>
       </c>
@@ -35140,7 +35143,7 @@
         <v>-1.9421000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="14.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>5.6050000000000003E-2</v>
       </c>
@@ -35253,7 +35256,7 @@
         <v>-1.7565000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="14.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>4.9064999999999998E-2</v>
       </c>
@@ -35366,7 +35369,7 @@
         <v>-1.5409000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="14.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>4.4884E-2</v>
       </c>
@@ -35479,7 +35482,7 @@
         <v>-1.4345999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="14.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>3.9240999999999998E-2</v>
       </c>
@@ -35592,7 +35595,7 @@
         <v>-1.2799E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="14.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>3.6747000000000002E-2</v>
       </c>
@@ -35705,7 +35708,7 @@
         <v>-1.0972000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="14.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>3.3436E-2</v>
       </c>
@@ -35818,7 +35821,7 @@
         <v>-1.0721E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="14.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>3.0672999999999999E-2</v>
       </c>
@@ -35931,7 +35934,7 @@
         <v>-9.4059999999999994E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="14.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>2.8525999999999999E-2</v>
       </c>
@@ -36044,7 +36047,7 @@
         <v>-8.6580000000000008E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="14.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>2.6491000000000001E-2</v>
       </c>
@@ -36157,7 +36160,7 @@
         <v>-8.1099999999999992E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="14.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>2.4804E-2</v>
       </c>
@@ -36270,7 +36273,7 @@
         <v>-7.1190000000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>2.3848999999999999E-2</v>
       </c>
@@ -36383,7 +36386,7 @@
         <v>-7.0930000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="14.45">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>2.2301000000000001E-2</v>
       </c>
@@ -36496,7 +36499,7 @@
         <v>-6.2509999999999996E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.45">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>2.1465000000000001E-2</v>
       </c>
@@ -36609,7 +36612,7 @@
         <v>-5.7959999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="14.45">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>2.0707E-2</v>
       </c>
@@ -36722,7 +36725,7 @@
         <v>-6.1349999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="14.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>2.0566000000000001E-2</v>
       </c>
@@ -36835,7 +36838,7 @@
         <v>-5.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="14.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>2.0181000000000001E-2</v>
       </c>
@@ -36948,7 +36951,7 @@
         <v>-5.032E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="14.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>1.9125E-2</v>
       </c>
@@ -37061,7 +37064,7 @@
         <v>-5.2249999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="14.45">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>1.8966E-2</v>
       </c>
@@ -37174,7 +37177,7 @@
         <v>-4.4039999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="14.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>1.8391000000000001E-2</v>
       </c>
@@ -37287,7 +37290,7 @@
         <v>-4.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="14.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>1.7856E-2</v>
       </c>
@@ -37400,7 +37403,7 @@
         <v>-4.0280000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="14.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>1.7897E-2</v>
       </c>
@@ -37513,7 +37516,7 @@
         <v>-3.588E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="14.45">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>1.7319000000000001E-2</v>
       </c>
@@ -37626,7 +37629,7 @@
         <v>-3.4770000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="14.45">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>1.7294E-2</v>
       </c>
@@ -37739,7 +37742,7 @@
         <v>-3.1489999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="14.45">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>1.7198000000000001E-2</v>
       </c>
@@ -37852,7 +37855,7 @@
         <v>-2.7550000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="14.45">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>1.6764999999999999E-2</v>
       </c>
@@ -37965,7 +37968,7 @@
         <v>-2.653E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="14.45">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>1.6639000000000001E-2</v>
       </c>
@@ -38078,7 +38081,7 @@
         <v>-2.3830000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="14.45">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>1.6688999999999999E-2</v>
       </c>
@@ -38191,7 +38194,7 @@
         <v>-1.946E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="14.45">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>1.6116999999999999E-2</v>
       </c>
@@ -38304,7 +38307,7 @@
         <v>-1.9680000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="14.45">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>1.6712999999999999E-2</v>
       </c>
@@ -38417,7 +38420,7 @@
         <v>-1.6540000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.45">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>1.6256E-2</v>
       </c>
@@ -38530,7 +38533,7 @@
         <v>-1.4369999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="14.45">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>1.6230000000000001E-2</v>
       </c>
@@ -38643,7 +38646,7 @@
         <v>-1.4040000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="14.45">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>1.6812000000000001E-2</v>
       </c>
@@ -38756,7 +38759,7 @@
         <v>-1.1709999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>1.6049999999999998E-2</v>
       </c>
@@ -38869,7 +38872,7 @@
         <v>-1.2700000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>1.6053999999999999E-2</v>
       </c>
@@ -38982,7 +38985,7 @@
         <v>-1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>1.5806000000000001E-2</v>
       </c>
@@ -39095,7 +39098,7 @@
         <v>-1.446E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>1.523E-2</v>
       </c>
@@ -39208,7 +39211,7 @@
         <v>-1.8779999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>1.5692000000000001E-2</v>
       </c>
@@ -39321,7 +39324,7 @@
         <v>-2.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>1.5288E-2</v>
       </c>
@@ -39434,7 +39437,7 @@
         <v>-2.6220000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>1.5237000000000001E-2</v>
       </c>
@@ -39547,7 +39550,7 @@
         <v>-3.1480000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>1.5751000000000001E-2</v>
       </c>
@@ -39660,7 +39663,7 @@
         <v>-3.4659999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>1.5330999999999999E-2</v>
       </c>
@@ -39773,7 +39776,7 @@
         <v>-3.81E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>1.5448E-2</v>
       </c>
@@ -39886,7 +39889,7 @@
         <v>-4.1240000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>1.8131999999999999E-2</v>
       </c>
@@ -39999,7 +40002,7 @@
         <v>-5.0379999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>1.7770999999999999E-2</v>
       </c>
@@ -40112,7 +40115,7 @@
         <v>-4.862E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>1.7520000000000001E-2</v>
       </c>
@@ -40225,7 +40228,7 @@
         <v>-4.7520000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>1.6896000000000001E-2</v>
       </c>
@@ -40338,7 +40341,7 @@
         <v>-4.6360000000000004E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
         <v>1.6618000000000001E-2</v>
       </c>
@@ -40451,7 +40454,7 @@
         <v>-4.4339999999999996E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
         <v>1.6213000000000002E-2</v>
       </c>
@@ -40564,7 +40567,7 @@
         <v>-4.274E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="26">
         <v>1.5809E-2</v>
       </c>
@@ -40677,7 +40680,7 @@
         <v>-4.2079999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
         <v>1.5398999999999999E-2</v>
       </c>
@@ -40790,7 +40793,7 @@
         <v>-4.0359999999999997E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="26">
         <v>1.504E-2</v>
       </c>
@@ -40903,7 +40906,7 @@
         <v>-3.9220000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="26">
         <v>1.4821000000000001E-2</v>
       </c>
@@ -41016,7 +41019,7 @@
         <v>-3.8E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
         <v>1.4487999999999999E-2</v>
       </c>
@@ -41129,7 +41132,7 @@
         <v>-3.7009999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>1.4298E-2</v>
       </c>
@@ -41242,7 +41245,7 @@
         <v>-3.5330000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
         <v>1.4007E-2</v>
       </c>
@@ -41355,7 +41358,7 @@
         <v>-3.421E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
         <v>1.3653999999999999E-2</v>
       </c>
@@ -41468,7 +41471,7 @@
         <v>-3.3E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
         <v>1.3573E-2</v>
       </c>
@@ -41581,7 +41584,7 @@
         <v>-3.1519999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>1.3131E-2</v>
       </c>
@@ -41694,7 +41697,7 @@
         <v>-2.9989999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>1.2966999999999999E-2</v>
       </c>
@@ -41807,7 +41810,7 @@
         <v>-2.872E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="26">
         <v>1.2997E-2</v>
       </c>
@@ -41920,7 +41923,7 @@
         <v>-2.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>1.2674E-2</v>
       </c>
@@ -42033,7 +42036,7 @@
         <v>-2.6670000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>1.2593E-2</v>
       </c>
@@ -42146,7 +42149,7 @@
         <v>-2.5409999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="26">
         <v>1.2147E-2</v>
       </c>
@@ -42259,7 +42262,7 @@
         <v>-2.3770000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="26">
         <v>1.18E-2</v>
       </c>
@@ -42372,7 +42375,7 @@
         <v>-2.2049999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="26">
         <v>1.1908E-2</v>
       </c>
@@ -42485,7 +42488,7 @@
         <v>-2.0690000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="26">
         <v>1.1483999999999999E-2</v>
       </c>
@@ -42598,7 +42601,7 @@
         <v>-1.954E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="26">
         <v>1.1542999999999999E-2</v>
       </c>
@@ -42711,7 +42714,7 @@
         <v>-1.9070000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="26">
         <v>1.1856999999999999E-2</v>
       </c>
@@ -42824,7 +42827,7 @@
         <v>-1.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="26">
         <v>1.1303000000000001E-2</v>
       </c>
@@ -42937,7 +42940,7 @@
         <v>-1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
         <v>1.1775000000000001E-2</v>
       </c>
@@ -43050,7 +43053,7 @@
         <v>-1.766E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>1.1825E-2</v>
       </c>
@@ -43163,7 +43166,7 @@
         <v>-1.683E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
         <v>1.1415E-2</v>
       </c>
@@ -43276,7 +43279,7 @@
         <v>-1.892E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>1.2305999999999999E-2</v>
       </c>
@@ -43389,7 +43392,7 @@
         <v>-1.9289999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>1.1722E-2</v>
       </c>
@@ -43502,7 +43505,7 @@
         <v>-2.0370000000000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>1.1971000000000001E-2</v>
       </c>
@@ -43615,7 +43618,7 @@
         <v>-2.117E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
         <v>1.2492E-2</v>
       </c>
@@ -43728,7 +43731,7 @@
         <v>-2.2880000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
         <v>1.1572000000000001E-2</v>
       </c>
@@ -43841,7 +43844,7 @@
         <v>-2.4060000000000002E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
         <v>1.2116E-2</v>
       </c>
@@ -43954,7 +43957,7 @@
         <v>-2.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
         <v>1.1946999999999999E-2</v>
       </c>
@@ -44067,7 +44070,7 @@
         <v>-2.63E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
         <v>1.1309E-2</v>
       </c>
@@ -44180,7 +44183,7 @@
         <v>-2.679E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
         <v>1.2137999999999999E-2</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CE09OSSM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSSM_00002.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="29820" yWindow="1875" windowWidth="20730" windowHeight="11760" tabRatio="766" activeTab="1"/>
   </bookViews>
@@ -21,7 +26,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="263">
   <si>
     <t>Ref Des</t>
   </si>
@@ -459,33 +464,6 @@
     <t>CE09OSSM-MFD35-02-PRESFC000</t>
   </si>
   <si>
-    <t>CE09OSSM-00001-CPM1</t>
-  </si>
-  <si>
-    <t>CE09OSSM-00001-CPM2</t>
-  </si>
-  <si>
-    <t>CE09OSSM-00001-CPM3</t>
-  </si>
-  <si>
-    <t>CE09OSSM-00001-DCL11</t>
-  </si>
-  <si>
-    <t>CE09OSSM-00001-DCL12</t>
-  </si>
-  <si>
-    <t>CE09OSSM-00001-DCL26</t>
-  </si>
-  <si>
-    <t>CE09OSSM-00001-DCL27</t>
-  </si>
-  <si>
-    <t>CE09OSSM-00001-DCL35</t>
-  </si>
-  <si>
-    <t>CE09OSSM-00001-DCL37</t>
-  </si>
-  <si>
     <t>The serial number used here is bogus, pending identification of the real serial number.</t>
   </si>
   <si>
@@ -499,9 +477,6 @@
   </si>
   <si>
     <t>CE09OSSM-00002</t>
-  </si>
-  <si>
-    <t>6223-4220-43260</t>
   </si>
   <si>
     <t>35-257-50A</t>
@@ -675,13 +650,7 @@
     <t>CE09OSSM-00001</t>
   </si>
   <si>
-    <t>CE09OSSM-SBD11-HYDGN</t>
-  </si>
-  <si>
     <t>CE09OSSM-SBD12-03-HYDGN0000</t>
-  </si>
-  <si>
-    <t>CE09OSSM-SBD12-HYDGN</t>
   </si>
   <si>
     <t>Mooring OOIBARCODE</t>
@@ -784,6 +753,78 @@
   </si>
   <si>
     <t>CE09OSSM-MFD37-03-DOSTAD000</t>
+  </si>
+  <si>
+    <t>OL000457</t>
+  </si>
+  <si>
+    <t>OL000458</t>
+  </si>
+  <si>
+    <t>OL000459</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002+MOPAK</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002-HYDGN11</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002-HYDGN12</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002-CPM1</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002-CPM2</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002-CPM3</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002-DCL11</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002-DCL12</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002-DCL26</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002-DCL27</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002-DCL35</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00002-DCL37</t>
+  </si>
+  <si>
+    <t>OL000463</t>
+  </si>
+  <si>
+    <t>OL000464</t>
+  </si>
+  <si>
+    <t>OL000465</t>
+  </si>
+  <si>
+    <t>OL000466</t>
+  </si>
+  <si>
+    <t>OL000467</t>
+  </si>
+  <si>
+    <t>OL000468</t>
+  </si>
+  <si>
+    <t>OL000460</t>
+  </si>
+  <si>
+    <t>OL000461</t>
+  </si>
+  <si>
+    <t>OL000462</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1324,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1408,6 +1449,7 @@
     <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="160">
     <cellStyle name="Comma 2" xfId="74"/>
@@ -1892,7 +1934,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1916,7 +1958,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1954,13 +1996,13 @@
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -1975,16 +2017,16 @@
         <v>42497</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="J2" s="34">
         <v>542</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="35">
@@ -2026,8 +2068,8 @@
   <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>1</v>
@@ -2061,7 +2103,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>2</v>
@@ -2089,19 +2131,19 @@
         <v>113</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>5</v>
@@ -2110,7 +2152,7 @@
         <v>46.85313166666667</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2118,19 +2160,19 @@
         <v>113</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>6</v>
@@ -2145,19 +2187,19 @@
         <v>113</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>35</v>
@@ -2166,7 +2208,7 @@
         <v>1.35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2174,19 +2216,19 @@
         <v>113</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>36</v>
@@ -2195,7 +2237,7 @@
         <v>3.76</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2203,19 +2245,19 @@
         <v>113</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>37</v>
@@ -2224,7 +2266,7 @@
         <v>3.76</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2232,19 +2274,19 @@
         <v>113</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>38</v>
@@ -2253,7 +2295,7 @@
         <v>4.33</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2261,19 +2303,19 @@
         <v>113</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>39</v>
@@ -2282,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2290,19 +2332,19 @@
         <v>113</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>40</v>
@@ -2311,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2319,19 +2361,19 @@
         <v>113</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>41</v>
@@ -2340,7 +2382,7 @@
         <v>600</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2348,19 +2390,22 @@
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="F13" s="44" t="s">
-        <v>214</v>
+      <c r="E13" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2368,19 +2413,22 @@
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D15" s="8">
         <v>2</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>216</v>
+      <c r="E15" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2391,21 +2439,24 @@
         <v>112</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="F17" s="45" t="s">
-        <v>156</v>
+      <c r="E17" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="22"/>
       <c r="I17" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2416,24 +2467,24 @@
         <v>136</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="22"/>
       <c r="I19" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2444,19 +2495,19 @@
         <v>137</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>5</v>
@@ -2470,19 +2521,19 @@
         <v>137</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>6</v>
@@ -2499,19 +2550,19 @@
         <v>114</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>5</v>
@@ -2525,19 +2576,19 @@
         <v>114</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>6</v>
@@ -2554,16 +2605,16 @@
         <v>139</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F27" s="45">
         <v>22717</v>
@@ -2575,7 +2626,7 @@
         <v>7000</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2583,16 +2634,16 @@
         <v>139</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F28" s="45">
         <v>22717</v>
@@ -2609,16 +2660,16 @@
         <v>139</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D29" s="8">
         <v>2</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F29" s="45">
         <v>22717</v>
@@ -2635,16 +2686,16 @@
         <v>139</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D30" s="8">
         <v>2</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F30" s="45">
         <v>22717</v>
@@ -2661,16 +2712,16 @@
         <v>139</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D31" s="8">
         <v>2</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F31" s="45">
         <v>22717</v>
@@ -2687,16 +2738,16 @@
         <v>139</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D32" s="8">
         <v>2</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F32" s="45">
         <v>22717</v>
@@ -2713,16 +2764,16 @@
         <v>139</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D33" s="8">
         <v>2</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F33" s="45">
         <v>22717</v>
@@ -2742,19 +2793,19 @@
         <v>121</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D35" s="8">
         <v>2</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>5</v>
@@ -2768,19 +2819,19 @@
         <v>121</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D36" s="8">
         <v>2</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>6</v>
@@ -2794,19 +2845,19 @@
         <v>121</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D37" s="8">
         <v>2</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>76</v>
@@ -2820,19 +2871,19 @@
         <v>121</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>77</v>
@@ -2846,19 +2897,19 @@
         <v>121</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D39" s="8">
         <v>2</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>78</v>
@@ -2872,19 +2923,19 @@
         <v>121</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D40" s="8">
         <v>2</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>79</v>
@@ -2898,19 +2949,19 @@
         <v>121</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D41" s="8">
         <v>2</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>80</v>
@@ -2924,19 +2975,19 @@
         <v>121</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D42" s="8">
         <v>2</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>81</v>
@@ -2950,19 +3001,19 @@
         <v>121</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D43" s="8">
         <v>2</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>82</v>
@@ -2976,19 +3027,19 @@
         <v>121</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D44" s="8">
         <v>2</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>83</v>
@@ -3002,19 +3053,19 @@
         <v>121</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D45" s="8">
         <v>2</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>84</v>
@@ -3028,19 +3079,19 @@
         <v>121</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8">
         <v>2</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>85</v>
@@ -3054,19 +3105,19 @@
         <v>121</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8">
         <v>2</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>86</v>
@@ -3080,19 +3131,19 @@
         <v>121</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8">
         <v>2</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>87</v>
@@ -3106,19 +3157,19 @@
         <v>121</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8">
         <v>2</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>88</v>
@@ -3132,19 +3183,19 @@
         <v>121</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8">
         <v>2</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>89</v>
@@ -3158,19 +3209,19 @@
         <v>121</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8">
         <v>2</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>90</v>
@@ -3184,19 +3235,19 @@
         <v>121</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8">
         <v>2</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>91</v>
@@ -3210,19 +3261,19 @@
         <v>121</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D53" s="8">
         <v>2</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>92</v>
@@ -3236,19 +3287,19 @@
         <v>121</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D54" s="8">
         <v>2</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>93</v>
@@ -3262,19 +3313,19 @@
         <v>121</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D55" s="8">
         <v>2</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>94</v>
@@ -3288,19 +3339,19 @@
         <v>121</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D56" s="8">
         <v>2</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F56" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>95</v>
@@ -3314,19 +3365,19 @@
         <v>121</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D57" s="8">
         <v>2</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F57" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>96</v>
@@ -3340,19 +3391,19 @@
         <v>121</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D58" s="8">
         <v>2</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>97</v>
@@ -3369,16 +3420,16 @@
         <v>122</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D60" s="8">
         <v>2</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F60" s="45">
         <v>219</v>
@@ -3395,16 +3446,16 @@
         <v>122</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D61" s="8">
         <v>2</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F61" s="45">
         <v>219</v>
@@ -3421,16 +3472,16 @@
         <v>122</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D62" s="8">
         <v>2</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F62" s="45">
         <v>219</v>
@@ -3439,7 +3490,7 @@
         <v>11</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3447,28 +3498,28 @@
         <v>122</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D63" s="8">
         <v>2</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F63" s="45">
         <v>219</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3480,16 +3531,16 @@
         <v>120</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D65" s="8">
         <v>2</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F65" s="45">
         <v>1291</v>
@@ -3506,16 +3557,16 @@
         <v>120</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D66" s="8">
         <v>2</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F66" s="45">
         <v>1291</v>
@@ -3532,16 +3583,16 @@
         <v>120</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D67" s="8">
         <v>2</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F67" s="45">
         <v>1291</v>
@@ -3558,16 +3609,16 @@
         <v>120</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D68" s="8">
         <v>2</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F68" s="45">
         <v>1291</v>
@@ -3584,16 +3635,16 @@
         <v>120</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D69" s="8">
         <v>2</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F69" s="45">
         <v>1291</v>
@@ -3610,16 +3661,16 @@
         <v>120</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D70" s="8">
         <v>2</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F70" s="45">
         <v>1291</v>
@@ -3636,16 +3687,16 @@
         <v>120</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D71" s="8">
         <v>2</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F71" s="45">
         <v>1291</v>
@@ -3657,7 +3708,7 @@
         <v>124</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3665,16 +3716,16 @@
         <v>120</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D72" s="8">
         <v>2</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F72" s="45">
         <v>1291</v>
@@ -3694,16 +3745,16 @@
         <v>120</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D73" s="8">
         <v>2</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F73" s="45">
         <v>1291</v>
@@ -3715,7 +3766,7 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3723,16 +3774,16 @@
         <v>120</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D74" s="8">
         <v>2</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F74" s="45">
         <v>1291</v>
@@ -3756,16 +3807,16 @@
         <v>123</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D76" s="8">
         <v>2</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F76" s="45">
         <v>254</v>
@@ -3785,16 +3836,16 @@
         <v>123</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D77" s="8">
         <v>2</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F77" s="45">
         <v>254</v>
@@ -3814,16 +3865,16 @@
         <v>123</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D78" s="8">
         <v>2</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F78" s="45">
         <v>254</v>
@@ -3840,16 +3891,16 @@
         <v>123</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D79" s="8">
         <v>2</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F79" s="45">
         <v>254</v>
@@ -3858,7 +3909,7 @@
         <v>47</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3866,16 +3917,16 @@
         <v>123</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D80" s="8">
         <v>2</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F80" s="45">
         <v>254</v>
@@ -3884,7 +3935,7 @@
         <v>48</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3892,16 +3943,16 @@
         <v>123</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D81" s="8">
         <v>2</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F81" s="45">
         <v>254</v>
@@ -3910,7 +3961,7 @@
         <v>49</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3918,16 +3969,16 @@
         <v>123</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D82" s="8">
         <v>2</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F82" s="45">
         <v>254</v>
@@ -3936,10 +3987,10 @@
         <v>50</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3950,25 +4001,25 @@
         <v>118</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D84" s="8">
         <v>2</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3976,25 +4027,25 @@
         <v>118</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D85" s="8">
         <v>2</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>102</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4002,19 +4053,19 @@
         <v>118</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D86" s="8">
         <v>2</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>42</v>
@@ -4028,25 +4079,25 @@
         <v>118</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D87" s="8">
         <v>2</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4054,25 +4105,25 @@
         <v>118</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D88" s="8">
         <v>2</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4080,25 +4131,25 @@
         <v>118</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D89" s="8">
         <v>2</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>104</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4106,25 +4157,25 @@
         <v>118</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D90" s="8">
         <v>2</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4132,25 +4183,25 @@
         <v>118</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D91" s="8">
         <v>2</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>106</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4161,19 +4212,19 @@
         <v>116</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D93" s="1">
         <v>2</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F93" s="45" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>14</v>
@@ -4187,19 +4238,19 @@
         <v>116</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D94" s="8">
         <v>2</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F94" s="45" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>16</v>
@@ -4213,19 +4264,19 @@
         <v>116</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D95" s="8">
         <v>2</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F95" s="45" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>15</v>
@@ -4239,19 +4290,19 @@
         <v>116</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D96" s="8">
         <v>2</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F96" s="45" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>17</v>
@@ -4265,19 +4316,19 @@
         <v>116</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D97" s="8">
         <v>2</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F97" s="45" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>19</v>
@@ -4286,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4294,19 +4345,19 @@
         <v>116</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D98" s="8">
         <v>2</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F98" s="45" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>18</v>
@@ -4315,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4323,19 +4374,19 @@
         <v>116</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D99" s="8">
         <v>2</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>100</v>
@@ -4344,7 +4395,7 @@
         <v>35</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4355,16 +4406,16 @@
         <v>124</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D101" s="8">
         <v>2</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F101" s="45">
         <v>254</v>
@@ -4373,7 +4424,7 @@
         <v>51</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4381,16 +4432,16 @@
         <v>124</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D102" s="8">
         <v>2</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F102" s="45">
         <v>254</v>
@@ -4399,7 +4450,7 @@
         <v>52</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4407,16 +4458,16 @@
         <v>124</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D103" s="8">
         <v>2</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F103" s="45">
         <v>254</v>
@@ -4425,7 +4476,7 @@
         <v>53</v>
       </c>
       <c r="H103" s="27" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4437,19 +4488,19 @@
         <v>115</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>5</v>
@@ -4463,19 +4514,19 @@
         <v>115</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D106" s="1">
         <v>2</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>6</v>
@@ -4492,16 +4543,16 @@
         <v>140</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D108" s="8">
         <v>2</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F108" s="45">
         <v>22649</v>
@@ -4513,7 +4564,7 @@
         <v>542000</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4521,16 +4572,16 @@
         <v>140</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D109" s="8">
         <v>2</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F109" s="45">
         <v>22649</v>
@@ -4547,16 +4598,16 @@
         <v>140</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D110" s="8">
         <v>2</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F110" s="45">
         <v>22649</v>
@@ -4573,16 +4624,16 @@
         <v>140</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D111" s="8">
         <v>2</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F111" s="45">
         <v>22649</v>
@@ -4599,16 +4650,16 @@
         <v>140</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D112" s="8">
         <v>2</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F112" s="45">
         <v>22649</v>
@@ -4625,16 +4676,16 @@
         <v>140</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D113" s="8">
         <v>2</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F113" s="45">
         <v>22649</v>
@@ -4651,16 +4702,16 @@
         <v>140</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D114" s="8">
         <v>2</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F114" s="45">
         <v>22649</v>
@@ -4681,19 +4732,19 @@
     <row r="116" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F116" s="43"/>
       <c r="I116" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L116" s="8">
         <v>2</v>
       </c>
       <c r="M116" s="23" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4704,19 +4755,19 @@
         <v>138</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D118" s="8">
         <v>2</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F118" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>5</v>
@@ -4730,19 +4781,19 @@
         <v>138</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D119" s="8">
         <v>2</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F119" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>6</v>
@@ -4756,19 +4807,19 @@
         <v>138</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D120" s="8">
         <v>2</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F120" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>76</v>
@@ -4782,19 +4833,19 @@
         <v>138</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D121" s="8">
         <v>2</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F121" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G121" s="8" t="s">
         <v>77</v>
@@ -4808,19 +4859,19 @@
         <v>138</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D122" s="8">
         <v>2</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F122" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>78</v>
@@ -4834,19 +4885,19 @@
         <v>138</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D123" s="8">
         <v>2</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F123" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>79</v>
@@ -4860,19 +4911,19 @@
         <v>138</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D124" s="8">
         <v>2</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F124" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>80</v>
@@ -4886,19 +4937,19 @@
         <v>138</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D125" s="8">
         <v>2</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F125" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>81</v>
@@ -4912,19 +4963,19 @@
         <v>138</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D126" s="8">
         <v>2</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F126" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>82</v>
@@ -4938,19 +4989,19 @@
         <v>138</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D127" s="8">
         <v>2</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F127" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>83</v>
@@ -4964,19 +5015,19 @@
         <v>138</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D128" s="8">
         <v>2</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F128" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>84</v>
@@ -4990,19 +5041,19 @@
         <v>138</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D129" s="8">
         <v>2</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F129" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>85</v>
@@ -5016,19 +5067,19 @@
         <v>138</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D130" s="8">
         <v>2</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F130" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>86</v>
@@ -5042,19 +5093,19 @@
         <v>138</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D131" s="8">
         <v>2</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F131" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>87</v>
@@ -5063,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -5071,19 +5122,19 @@
         <v>138</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D132" s="8">
         <v>2</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F132" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>88</v>
@@ -5097,19 +5148,19 @@
         <v>138</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D133" s="8">
         <v>2</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F133" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G133" s="8" t="s">
         <v>89</v>
@@ -5123,19 +5174,19 @@
         <v>138</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D134" s="8">
         <v>2</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F134" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>90</v>
@@ -5149,19 +5200,19 @@
         <v>138</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D135" s="8">
         <v>2</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F135" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>91</v>
@@ -5175,19 +5226,19 @@
         <v>138</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D136" s="8">
         <v>2</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F136" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>92</v>
@@ -5201,19 +5252,19 @@
         <v>138</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D137" s="8">
         <v>2</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F137" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>93</v>
@@ -5227,19 +5278,19 @@
         <v>138</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D138" s="8">
         <v>2</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F138" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>94</v>
@@ -5253,19 +5304,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D139" s="8">
         <v>2</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F139" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>95</v>
@@ -5279,19 +5330,19 @@
         <v>138</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D140" s="8">
         <v>2</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F140" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>96</v>
@@ -5305,19 +5356,19 @@
         <v>138</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D141" s="8">
         <v>2</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F141" s="45" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>97</v>
@@ -5332,19 +5383,19 @@
     </row>
     <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D143" s="8">
         <v>2</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F143" s="45">
         <v>478</v>
@@ -5358,19 +5409,19 @@
     </row>
     <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D144" s="8">
         <v>2</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F144" s="45">
         <v>478</v>
@@ -5384,19 +5435,19 @@
     </row>
     <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D145" s="8">
         <v>2</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F145" s="45">
         <v>478</v>
@@ -5405,36 +5456,36 @@
         <v>11</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D146" s="8">
         <v>2</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F146" s="45">
         <v>478</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H146" s="22" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5446,25 +5497,25 @@
         <v>119</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D148" s="8">
         <v>2</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F148" s="39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H148" s="27" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5472,25 +5523,25 @@
         <v>119</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D149" s="8">
         <v>2</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F149" s="39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G149" s="8" t="s">
         <v>102</v>
       </c>
       <c r="H149" s="27" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5498,19 +5549,19 @@
         <v>119</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D150" s="8">
         <v>2</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F150" s="39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>42</v>
@@ -5524,25 +5575,25 @@
         <v>119</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D151" s="8">
         <v>2</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F151" s="39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5550,25 +5601,25 @@
         <v>119</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D152" s="8">
         <v>2</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F152" s="39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H152" s="27" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5576,25 +5627,25 @@
         <v>119</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D153" s="8">
         <v>2</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F153" s="39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>104</v>
       </c>
       <c r="H153" s="27" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5602,25 +5653,25 @@
         <v>119</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D154" s="8">
         <v>2</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F154" s="39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H154" s="27" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5628,25 +5679,25 @@
         <v>119</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D155" s="8">
         <v>2</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H155" s="27" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5658,19 +5709,19 @@
         <v>126</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D157" s="8">
         <v>2</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F157" s="45" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>70</v>
@@ -5684,19 +5735,19 @@
         <v>126</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D158" s="8">
         <v>2</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F158" s="45" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>71</v>
@@ -5710,19 +5761,19 @@
         <v>126</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D159" s="8">
         <v>2</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F159" s="45" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>72</v>
@@ -5736,19 +5787,19 @@
         <v>126</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D160" s="8">
         <v>2</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F160" s="45" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>73</v>
@@ -5762,19 +5813,19 @@
         <v>126</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D161" s="8">
         <v>2</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F161" s="45" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>14</v>
@@ -5783,7 +5834,7 @@
         <v>19706</v>
       </c>
       <c r="I161" s="30" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5791,19 +5842,19 @@
         <v>126</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D162" s="8">
         <v>2</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F162" s="45" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>74</v>
@@ -5812,7 +5863,7 @@
         <v>34</v>
       </c>
       <c r="I162" s="31" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5820,19 +5871,19 @@
         <v>126</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D163" s="8">
         <v>2</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F163" s="45" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>15</v>
@@ -5847,19 +5898,19 @@
         <v>126</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D164" s="8">
         <v>2</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F164" s="45" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>75</v>
@@ -5877,19 +5928,19 @@
         <v>117</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D166" s="8">
         <v>2</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F166" s="45" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>14</v>
@@ -5903,19 +5954,19 @@
         <v>117</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D167" s="8">
         <v>2</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F167" s="45" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>16</v>
@@ -5929,19 +5980,19 @@
         <v>117</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D168" s="8">
         <v>2</v>
       </c>
       <c r="E168" s="26" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F168" s="45" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G168" s="8" t="s">
         <v>15</v>
@@ -5955,19 +6006,19 @@
         <v>117</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D169" s="8">
         <v>2</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F169" s="45" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G169" s="8" t="s">
         <v>17</v>
@@ -5981,19 +6032,19 @@
         <v>117</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D170" s="8">
         <v>2</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F170" s="45" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G170" s="8" t="s">
         <v>19</v>
@@ -6002,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6010,19 +6061,19 @@
         <v>117</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D171" s="8">
         <v>2</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F171" s="45" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G171" s="8" t="s">
         <v>18</v>
@@ -6031,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -6039,19 +6090,19 @@
         <v>117</v>
       </c>
       <c r="B172" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D172" s="8">
         <v>2</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F172" s="43" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G172" s="8" t="s">
         <v>100</v>
@@ -6060,7 +6111,7 @@
         <v>35</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6071,19 +6122,19 @@
         <v>141</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D174" s="8">
         <v>2</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F174" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>56</v>
@@ -6092,7 +6143,7 @@
         <v>-4631.5259999999998</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6100,19 +6151,19 @@
         <v>141</v>
       </c>
       <c r="B175" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D175" s="8">
         <v>2</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F175" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>57</v>
@@ -6121,7 +6172,7 @@
         <v>35.767060000000001</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6129,19 +6180,19 @@
         <v>141</v>
       </c>
       <c r="B176" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D176" s="8">
         <v>2</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>58</v>
@@ -6155,19 +6206,19 @@
         <v>141</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D177" s="8">
         <v>2</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>59</v>
@@ -6181,19 +6232,19 @@
         <v>141</v>
       </c>
       <c r="B178" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D178" s="8">
         <v>2</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>60</v>
@@ -6207,19 +6258,19 @@
         <v>141</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D179" s="8">
         <v>2</v>
       </c>
       <c r="E179" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>54</v>
@@ -6236,19 +6287,19 @@
         <v>141</v>
       </c>
       <c r="B180" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D180" s="8">
         <v>2</v>
       </c>
       <c r="E180" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F180" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>61</v>
@@ -6257,7 +6308,7 @@
         <v>-0.38400000000000001</v>
       </c>
       <c r="I180" s="33" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6265,19 +6316,19 @@
         <v>141</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D181" s="8">
         <v>2</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>55</v>
@@ -6294,19 +6345,19 @@
         <v>141</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D182" s="8">
         <v>2</v>
       </c>
       <c r="E182" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F182" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>62</v>
@@ -6320,19 +6371,19 @@
         <v>141</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D183" s="8">
         <v>2</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F183" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>63</v>
@@ -6346,19 +6397,19 @@
         <v>141</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D184" s="8">
         <v>2</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F184" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>64</v>
@@ -6372,19 +6423,19 @@
         <v>141</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D185" s="8">
         <v>2</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F185" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>65</v>
@@ -6398,19 +6449,19 @@
         <v>141</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D186" s="8">
         <v>2</v>
       </c>
       <c r="E186" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F186" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>66</v>
@@ -6424,19 +6475,19 @@
         <v>141</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D187" s="8">
         <v>2</v>
       </c>
       <c r="E187" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F187" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>67</v>
@@ -6450,19 +6501,19 @@
         <v>141</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D188" s="8">
         <v>2</v>
       </c>
       <c r="E188" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F188" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>68</v>
@@ -6476,19 +6527,19 @@
         <v>141</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D189" s="8">
         <v>2</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F189" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>69</v>
@@ -6502,19 +6553,19 @@
         <v>141</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D190" s="8">
         <v>2</v>
       </c>
       <c r="E190" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F190" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G190" s="8" t="s">
         <v>98</v>
@@ -6528,19 +6579,19 @@
         <v>141</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D191" s="8">
         <v>2</v>
       </c>
       <c r="E191" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F191" s="39" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G191" s="8" t="s">
         <v>99</v>
@@ -6557,16 +6608,16 @@
         <v>125</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D193" s="8">
         <v>2</v>
       </c>
       <c r="E193" s="26" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F193" s="45">
         <v>12607</v>
@@ -6583,16 +6634,16 @@
         <v>125</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D194" s="8">
         <v>2</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F194" s="45">
         <v>12607</v>
@@ -6613,26 +6664,26 @@
     </row>
     <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D196" s="8">
         <v>2</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F196" s="45">
         <v>55096</v>
       </c>
       <c r="H196" s="22"/>
       <c r="I196" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="197" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6643,19 +6694,22 @@
         <v>127</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D198" s="8">
         <v>2</v>
       </c>
-      <c r="F198" s="44" t="s">
+      <c r="E198" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I198" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="I198" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6663,19 +6717,22 @@
         <v>128</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D199" s="8">
         <v>2</v>
       </c>
-      <c r="F199" s="44" t="s">
-        <v>143</v>
+      <c r="E199" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="I199" s="19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6683,19 +6740,22 @@
         <v>129</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D200" s="8">
         <v>2</v>
       </c>
-      <c r="F200" s="44" t="s">
-        <v>144</v>
+      <c r="E200" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="I200" s="19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6708,19 +6768,22 @@
         <v>130</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D202" s="8">
         <v>2</v>
       </c>
-      <c r="F202" s="44" t="s">
-        <v>145</v>
+      <c r="E202" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="I202" s="19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6728,19 +6791,22 @@
         <v>131</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D203" s="8">
         <v>2</v>
       </c>
-      <c r="F203" s="44" t="s">
-        <v>146</v>
+      <c r="E203" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="I203" s="19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6748,19 +6814,22 @@
         <v>132</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D204" s="8">
         <v>2</v>
       </c>
-      <c r="F204" s="44" t="s">
-        <v>147</v>
+      <c r="E204" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="I204" s="19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6768,19 +6837,22 @@
         <v>133</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D205" s="8">
         <v>2</v>
       </c>
-      <c r="F205" s="44" t="s">
-        <v>148</v>
+      <c r="E205" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="I205" s="19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6788,19 +6860,22 @@
         <v>134</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D206" s="8">
         <v>2</v>
       </c>
-      <c r="F206" s="44" t="s">
-        <v>149</v>
+      <c r="E206" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="I206" s="19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6808,19 +6883,22 @@
         <v>135</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D207" s="8">
         <v>2</v>
       </c>
-      <c r="F207" s="44" t="s">
-        <v>150</v>
+      <c r="E207" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="I207" s="19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/Omaha_Cal_Info_CE09OSSM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSSM_00002.xlsx
@@ -395,9 +395,6 @@
     <t>CE09OSSM-RID27-01-OPTAAD000</t>
   </si>
   <si>
-    <t>CE09OSSM-MFD37-01-OPTAAD000</t>
-  </si>
-  <si>
     <t>CE09OSSM-RID27-02-FLORTD000</t>
   </si>
   <si>
@@ -405,12 +402,6 @@
   </si>
   <si>
     <t>CE09OSSM-RID27-04-DOSTAD000</t>
-  </si>
-  <si>
-    <t>CE09OSSM-RID27-07-NUTNRB000</t>
-  </si>
-  <si>
-    <t>CE09OSSM-RID27-08-SPKIRB000</t>
   </si>
   <si>
     <t>CE09OSSM-MFD35-01-VEL3DD000</t>
@@ -826,6 +817,15 @@
   <si>
     <t>OL000462</t>
   </si>
+  <si>
+    <t>CE09OSSM-RID26-07-NUTNRB000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-RID26-08-SPKIRB000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-MFD37-01-OPTAAC000</t>
+  </si>
 </sst>
 </file>
 
@@ -1062,7 +1062,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1158,6 +1158,19 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,7 +1337,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1450,6 +1463,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="160">
     <cellStyle name="Comma 2" xfId="74"/>
@@ -1958,7 +1974,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1996,13 +2012,13 @@
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -2017,16 +2033,16 @@
         <v>42497</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J2" s="34">
         <v>542</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="35">
@@ -2067,9 +2083,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2094,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>1</v>
@@ -2103,7 +2119,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>2</v>
@@ -2131,19 +2147,19 @@
         <v>113</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>5</v>
@@ -2152,7 +2168,7 @@
         <v>46.85313166666667</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2160,19 +2176,19 @@
         <v>113</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>6</v>
@@ -2187,19 +2203,19 @@
         <v>113</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>35</v>
@@ -2208,7 +2224,7 @@
         <v>1.35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2216,19 +2232,19 @@
         <v>113</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>36</v>
@@ -2237,7 +2253,7 @@
         <v>3.76</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2245,19 +2261,19 @@
         <v>113</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>37</v>
@@ -2266,7 +2282,7 @@
         <v>3.76</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2274,19 +2290,19 @@
         <v>113</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>38</v>
@@ -2295,7 +2311,7 @@
         <v>4.33</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2303,19 +2319,19 @@
         <v>113</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>39</v>
@@ -2324,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2332,19 +2348,19 @@
         <v>113</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>40</v>
@@ -2353,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2361,19 +2377,19 @@
         <v>113</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>41</v>
@@ -2382,7 +2398,7 @@
         <v>600</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2390,22 +2406,22 @@
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
       <c r="E13" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>240</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2413,22 +2429,22 @@
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>207</v>
-      </c>
       <c r="C15" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D15" s="8">
         <v>2</v>
       </c>
       <c r="E15" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="46" t="s">
         <v>241</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2439,24 +2455,24 @@
         <v>112</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D17" s="8">
         <v>2</v>
       </c>
       <c r="E17" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>239</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>242</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="22"/>
       <c r="I17" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2464,27 +2480,27 @@
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="22"/>
       <c r="I19" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2492,22 +2508,22 @@
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>5</v>
@@ -2518,22 +2534,22 @@
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>6</v>
@@ -2550,19 +2566,19 @@
         <v>114</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>5</v>
@@ -2576,19 +2592,19 @@
         <v>114</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>6</v>
@@ -2602,19 +2618,19 @@
     </row>
     <row r="27" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F27" s="45">
         <v>22717</v>
@@ -2626,24 +2642,24 @@
         <v>7000</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F28" s="45">
         <v>22717</v>
@@ -2657,19 +2673,19 @@
     </row>
     <row r="29" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D29" s="8">
         <v>2</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F29" s="45">
         <v>22717</v>
@@ -2683,19 +2699,19 @@
     </row>
     <row r="30" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D30" s="8">
         <v>2</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F30" s="45">
         <v>22717</v>
@@ -2709,19 +2725,19 @@
     </row>
     <row r="31" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D31" s="8">
         <v>2</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F31" s="45">
         <v>22717</v>
@@ -2735,19 +2751,19 @@
     </row>
     <row r="32" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D32" s="8">
         <v>2</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F32" s="45">
         <v>22717</v>
@@ -2761,19 +2777,19 @@
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D33" s="8">
         <v>2</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F33" s="45">
         <v>22717</v>
@@ -2790,22 +2806,22 @@
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D35" s="8">
         <v>2</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>5</v>
@@ -2816,22 +2832,22 @@
     </row>
     <row r="36" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D36" s="8">
         <v>2</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>6</v>
@@ -2842,22 +2858,22 @@
     </row>
     <row r="37" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D37" s="8">
         <v>2</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>76</v>
@@ -2868,22 +2884,22 @@
     </row>
     <row r="38" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>77</v>
@@ -2894,22 +2910,22 @@
     </row>
     <row r="39" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D39" s="8">
         <v>2</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>78</v>
@@ -2920,22 +2936,22 @@
     </row>
     <row r="40" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D40" s="8">
         <v>2</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>79</v>
@@ -2946,22 +2962,22 @@
     </row>
     <row r="41" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D41" s="8">
         <v>2</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>80</v>
@@ -2972,22 +2988,22 @@
     </row>
     <row r="42" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D42" s="8">
         <v>2</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>81</v>
@@ -2998,22 +3014,22 @@
     </row>
     <row r="43" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D43" s="8">
         <v>2</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>82</v>
@@ -3024,22 +3040,22 @@
     </row>
     <row r="44" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D44" s="8">
         <v>2</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>83</v>
@@ -3050,22 +3066,22 @@
     </row>
     <row r="45" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8">
         <v>2</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>84</v>
@@ -3076,22 +3092,22 @@
     </row>
     <row r="46" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8">
         <v>2</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>85</v>
@@ -3102,22 +3118,22 @@
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8">
         <v>2</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>86</v>
@@ -3128,22 +3144,22 @@
     </row>
     <row r="48" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8">
         <v>2</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>87</v>
@@ -3154,22 +3170,22 @@
     </row>
     <row r="49" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8">
         <v>2</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>88</v>
@@ -3180,22 +3196,22 @@
     </row>
     <row r="50" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8">
         <v>2</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>89</v>
@@ -3206,22 +3222,22 @@
     </row>
     <row r="51" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D51" s="8">
         <v>2</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>90</v>
@@ -3232,22 +3248,22 @@
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D52" s="8">
         <v>2</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>91</v>
@@ -3258,22 +3274,22 @@
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D53" s="8">
         <v>2</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>92</v>
@@ -3284,22 +3300,22 @@
     </row>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D54" s="8">
         <v>2</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>93</v>
@@ -3310,22 +3326,22 @@
     </row>
     <row r="55" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D55" s="8">
         <v>2</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>94</v>
@@ -3336,22 +3352,22 @@
     </row>
     <row r="56" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D56" s="8">
         <v>2</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F56" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>95</v>
@@ -3362,22 +3378,22 @@
     </row>
     <row r="57" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D57" s="8">
         <v>2</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F57" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>96</v>
@@ -3388,22 +3404,22 @@
     </row>
     <row r="58" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D58" s="8">
         <v>2</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>97</v>
@@ -3417,19 +3433,19 @@
     </row>
     <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D60" s="8">
         <v>2</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F60" s="45">
         <v>219</v>
@@ -3443,19 +3459,19 @@
     </row>
     <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D61" s="8">
         <v>2</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F61" s="45">
         <v>219</v>
@@ -3469,19 +3485,19 @@
     </row>
     <row r="62" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D62" s="8">
         <v>2</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F62" s="45">
         <v>219</v>
@@ -3490,36 +3506,36 @@
         <v>11</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D63" s="8">
         <v>2</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F63" s="45">
         <v>219</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3528,19 +3544,19 @@
     </row>
     <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D65" s="8">
         <v>2</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F65" s="45">
         <v>1291</v>
@@ -3554,19 +3570,19 @@
     </row>
     <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D66" s="8">
         <v>2</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F66" s="45">
         <v>1291</v>
@@ -3580,19 +3596,19 @@
     </row>
     <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D67" s="8">
         <v>2</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F67" s="45">
         <v>1291</v>
@@ -3606,19 +3622,19 @@
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D68" s="8">
         <v>2</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F68" s="45">
         <v>1291</v>
@@ -3632,19 +3648,19 @@
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D69" s="8">
         <v>2</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F69" s="45">
         <v>1291</v>
@@ -3658,19 +3674,19 @@
     </row>
     <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D70" s="8">
         <v>2</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F70" s="45">
         <v>1291</v>
@@ -3684,19 +3700,19 @@
     </row>
     <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D71" s="8">
         <v>2</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F71" s="45">
         <v>1291</v>
@@ -3708,24 +3724,24 @@
         <v>124</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D72" s="8">
         <v>2</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F72" s="45">
         <v>1291</v>
@@ -3742,19 +3758,19 @@
     </row>
     <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D73" s="8">
         <v>2</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F73" s="45">
         <v>1291</v>
@@ -3766,24 +3782,24 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D74" s="8">
         <v>2</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F74" s="45">
         <v>1291</v>
@@ -3803,20 +3819,20 @@
       <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>123</v>
+      <c r="A76" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D76" s="8">
         <v>2</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F76" s="45">
         <v>254</v>
@@ -3832,20 +3848,20 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>123</v>
+      <c r="A77" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D77" s="8">
         <v>2</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F77" s="45">
         <v>254</v>
@@ -3861,20 +3877,20 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>123</v>
+      <c r="A78" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D78" s="8">
         <v>2</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F78" s="45">
         <v>254</v>
@@ -3887,20 +3903,20 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>123</v>
+      <c r="A79" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D79" s="8">
         <v>2</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F79" s="45">
         <v>254</v>
@@ -3909,24 +3925,24 @@
         <v>47</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>123</v>
+      <c r="A80" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D80" s="8">
         <v>2</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F80" s="45">
         <v>254</v>
@@ -3935,24 +3951,24 @@
         <v>48</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>123</v>
+      <c r="A81" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D81" s="8">
         <v>2</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F81" s="45">
         <v>254</v>
@@ -3961,24 +3977,24 @@
         <v>49</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>123</v>
+      <c r="A82" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D82" s="8">
         <v>2</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F82" s="45">
         <v>254</v>
@@ -3987,10 +4003,10 @@
         <v>50</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4001,25 +4017,25 @@
         <v>118</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D84" s="8">
         <v>2</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4027,25 +4043,25 @@
         <v>118</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D85" s="8">
         <v>2</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>102</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4053,19 +4069,19 @@
         <v>118</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D86" s="8">
         <v>2</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>42</v>
@@ -4079,25 +4095,25 @@
         <v>118</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D87" s="8">
         <v>2</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4105,25 +4121,25 @@
         <v>118</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D88" s="8">
         <v>2</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4131,25 +4147,25 @@
         <v>118</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D89" s="8">
         <v>2</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>104</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4157,25 +4173,25 @@
         <v>118</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D90" s="8">
         <v>2</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4183,25 +4199,25 @@
         <v>118</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D91" s="8">
         <v>2</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>106</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4212,19 +4228,19 @@
         <v>116</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D93" s="1">
         <v>2</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F93" s="45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>14</v>
@@ -4238,19 +4254,19 @@
         <v>116</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D94" s="8">
         <v>2</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F94" s="45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>16</v>
@@ -4264,19 +4280,19 @@
         <v>116</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D95" s="8">
         <v>2</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F95" s="45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>15</v>
@@ -4290,19 +4306,19 @@
         <v>116</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D96" s="8">
         <v>2</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F96" s="45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>17</v>
@@ -4316,19 +4332,19 @@
         <v>116</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D97" s="8">
         <v>2</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F97" s="45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>19</v>
@@ -4337,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4345,19 +4361,19 @@
         <v>116</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D98" s="8">
         <v>2</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F98" s="45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>18</v>
@@ -4366,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4374,19 +4390,19 @@
         <v>116</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D99" s="8">
         <v>2</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>100</v>
@@ -4395,7 +4411,7 @@
         <v>35</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4403,19 +4419,19 @@
     </row>
     <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D101" s="8">
         <v>2</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F101" s="45">
         <v>254</v>
@@ -4424,24 +4440,24 @@
         <v>51</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D102" s="8">
         <v>2</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F102" s="45">
         <v>254</v>
@@ -4450,24 +4466,24 @@
         <v>52</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D103" s="8">
         <v>2</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F103" s="45">
         <v>254</v>
@@ -4476,7 +4492,7 @@
         <v>53</v>
       </c>
       <c r="H103" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4488,19 +4504,19 @@
         <v>115</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>5</v>
@@ -4514,19 +4530,19 @@
         <v>115</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D106" s="1">
         <v>2</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>6</v>
@@ -4540,19 +4556,19 @@
     </row>
     <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D108" s="8">
         <v>2</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F108" s="45">
         <v>22649</v>
@@ -4564,24 +4580,24 @@
         <v>542000</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D109" s="8">
         <v>2</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F109" s="45">
         <v>22649</v>
@@ -4595,19 +4611,19 @@
     </row>
     <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D110" s="8">
         <v>2</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F110" s="45">
         <v>22649</v>
@@ -4621,19 +4637,19 @@
     </row>
     <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D111" s="8">
         <v>2</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F111" s="45">
         <v>22649</v>
@@ -4647,19 +4663,19 @@
     </row>
     <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D112" s="8">
         <v>2</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F112" s="45">
         <v>22649</v>
@@ -4673,19 +4689,19 @@
     </row>
     <row r="113" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D113" s="8">
         <v>2</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F113" s="45">
         <v>22649</v>
@@ -4699,19 +4715,19 @@
     </row>
     <row r="114" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D114" s="8">
         <v>2</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F114" s="45">
         <v>22649</v>
@@ -4732,19 +4748,19 @@
     <row r="116" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F116" s="43"/>
       <c r="I116" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K116" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="J116" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="K116" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="L116" s="8">
         <v>2</v>
       </c>
       <c r="M116" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4752,22 +4768,22 @@
     </row>
     <row r="118" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D118" s="8">
         <v>2</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F118" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>5</v>
@@ -4778,22 +4794,22 @@
     </row>
     <row r="119" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D119" s="8">
         <v>2</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F119" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>6</v>
@@ -4804,22 +4820,22 @@
     </row>
     <row r="120" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D120" s="8">
         <v>2</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F120" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>76</v>
@@ -4830,22 +4846,22 @@
     </row>
     <row r="121" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D121" s="8">
         <v>2</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F121" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G121" s="8" t="s">
         <v>77</v>
@@ -4856,22 +4872,22 @@
     </row>
     <row r="122" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D122" s="8">
         <v>2</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F122" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>78</v>
@@ -4882,22 +4898,22 @@
     </row>
     <row r="123" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D123" s="8">
         <v>2</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F123" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>79</v>
@@ -4908,22 +4924,22 @@
     </row>
     <row r="124" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D124" s="8">
         <v>2</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F124" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>80</v>
@@ -4934,22 +4950,22 @@
     </row>
     <row r="125" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D125" s="8">
         <v>2</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F125" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>81</v>
@@ -4960,22 +4976,22 @@
     </row>
     <row r="126" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D126" s="8">
         <v>2</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F126" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>82</v>
@@ -4986,22 +5002,22 @@
     </row>
     <row r="127" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D127" s="8">
         <v>2</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F127" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>83</v>
@@ -5012,22 +5028,22 @@
     </row>
     <row r="128" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D128" s="8">
         <v>2</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F128" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>84</v>
@@ -5038,22 +5054,22 @@
     </row>
     <row r="129" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D129" s="8">
         <v>2</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F129" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>85</v>
@@ -5064,22 +5080,22 @@
     </row>
     <row r="130" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D130" s="8">
         <v>2</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F130" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>86</v>
@@ -5090,22 +5106,22 @@
     </row>
     <row r="131" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D131" s="8">
         <v>2</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F131" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>87</v>
@@ -5114,27 +5130,27 @@
         <v>0</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D132" s="8">
         <v>2</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F132" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>88</v>
@@ -5145,22 +5161,22 @@
     </row>
     <row r="133" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D133" s="8">
         <v>2</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F133" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G133" s="8" t="s">
         <v>89</v>
@@ -5171,22 +5187,22 @@
     </row>
     <row r="134" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D134" s="8">
         <v>2</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F134" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>90</v>
@@ -5197,22 +5213,22 @@
     </row>
     <row r="135" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D135" s="8">
         <v>2</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F135" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>91</v>
@@ -5223,22 +5239,22 @@
     </row>
     <row r="136" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D136" s="8">
         <v>2</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F136" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>92</v>
@@ -5249,22 +5265,22 @@
     </row>
     <row r="137" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D137" s="8">
         <v>2</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F137" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>93</v>
@@ -5275,22 +5291,22 @@
     </row>
     <row r="138" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D138" s="8">
         <v>2</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F138" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>94</v>
@@ -5301,22 +5317,22 @@
     </row>
     <row r="139" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D139" s="8">
         <v>2</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F139" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>95</v>
@@ -5327,22 +5343,22 @@
     </row>
     <row r="140" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D140" s="8">
         <v>2</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F140" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>96</v>
@@ -5353,22 +5369,22 @@
     </row>
     <row r="141" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D141" s="8">
         <v>2</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F141" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>97</v>
@@ -5383,19 +5399,19 @@
     </row>
     <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D143" s="8">
         <v>2</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F143" s="45">
         <v>478</v>
@@ -5409,19 +5425,19 @@
     </row>
     <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D144" s="8">
         <v>2</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F144" s="45">
         <v>478</v>
@@ -5435,19 +5451,19 @@
     </row>
     <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D145" s="8">
         <v>2</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F145" s="45">
         <v>478</v>
@@ -5456,36 +5472,36 @@
         <v>11</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D146" s="8">
         <v>2</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F146" s="45">
         <v>478</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H146" s="22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5494,74 +5510,74 @@
     </row>
     <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D148" s="8">
         <v>2</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F148" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H148" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D149" s="8">
         <v>2</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F149" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G149" s="8" t="s">
         <v>102</v>
       </c>
       <c r="H149" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D150" s="8">
         <v>2</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F150" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>42</v>
@@ -5572,132 +5588,132 @@
     </row>
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D151" s="8">
         <v>2</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F151" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D152" s="8">
         <v>2</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F152" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H152" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D153" s="8">
         <v>2</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F153" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>104</v>
       </c>
       <c r="H153" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D154" s="8">
         <v>2</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F154" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H154" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D155" s="8">
         <v>2</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H155" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5706,22 +5722,22 @@
     </row>
     <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D157" s="8">
         <v>2</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F157" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>70</v>
@@ -5732,22 +5748,22 @@
     </row>
     <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D158" s="8">
         <v>2</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F158" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>71</v>
@@ -5758,22 +5774,22 @@
     </row>
     <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D159" s="8">
         <v>2</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F159" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>72</v>
@@ -5784,22 +5800,22 @@
     </row>
     <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D160" s="8">
         <v>2</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F160" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>73</v>
@@ -5810,22 +5826,22 @@
     </row>
     <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D161" s="8">
         <v>2</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F161" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>14</v>
@@ -5834,27 +5850,27 @@
         <v>19706</v>
       </c>
       <c r="I161" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D162" s="8">
         <v>2</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F162" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>74</v>
@@ -5863,27 +5879,27 @@
         <v>34</v>
       </c>
       <c r="I162" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D163" s="8">
         <v>2</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F163" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>15</v>
@@ -5895,22 +5911,22 @@
     </row>
     <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D164" s="8">
         <v>2</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F164" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>75</v>
@@ -5928,19 +5944,19 @@
         <v>117</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D166" s="8">
         <v>2</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F166" s="45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>14</v>
@@ -5954,19 +5970,19 @@
         <v>117</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D167" s="8">
         <v>2</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F167" s="45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>16</v>
@@ -5980,19 +5996,19 @@
         <v>117</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D168" s="8">
         <v>2</v>
       </c>
       <c r="E168" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F168" s="45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G168" s="8" t="s">
         <v>15</v>
@@ -6006,19 +6022,19 @@
         <v>117</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D169" s="8">
         <v>2</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F169" s="45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G169" s="8" t="s">
         <v>17</v>
@@ -6032,19 +6048,19 @@
         <v>117</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D170" s="8">
         <v>2</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F170" s="45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G170" s="8" t="s">
         <v>19</v>
@@ -6053,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6061,19 +6077,19 @@
         <v>117</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D171" s="8">
         <v>2</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F171" s="45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G171" s="8" t="s">
         <v>18</v>
@@ -6082,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -6090,19 +6106,19 @@
         <v>117</v>
       </c>
       <c r="B172" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D172" s="8">
         <v>2</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F172" s="43" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G172" s="8" t="s">
         <v>100</v>
@@ -6111,7 +6127,7 @@
         <v>35</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6119,22 +6135,22 @@
     </row>
     <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D174" s="8">
         <v>2</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F174" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>56</v>
@@ -6143,27 +6159,27 @@
         <v>-4631.5259999999998</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B175" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D175" s="8">
         <v>2</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F175" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>57</v>
@@ -6172,27 +6188,27 @@
         <v>35.767060000000001</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B176" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D176" s="8">
         <v>2</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>58</v>
@@ -6203,22 +6219,22 @@
     </row>
     <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D177" s="8">
         <v>2</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>59</v>
@@ -6229,22 +6245,22 @@
     </row>
     <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B178" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D178" s="8">
         <v>2</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>60</v>
@@ -6255,22 +6271,22 @@
     </row>
     <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D179" s="8">
         <v>2</v>
       </c>
       <c r="E179" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>54</v>
@@ -6284,22 +6300,22 @@
     </row>
     <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B180" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D180" s="8">
         <v>2</v>
       </c>
       <c r="E180" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F180" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>61</v>
@@ -6308,27 +6324,27 @@
         <v>-0.38400000000000001</v>
       </c>
       <c r="I180" s="33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D181" s="8">
         <v>2</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>55</v>
@@ -6342,22 +6358,22 @@
     </row>
     <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D182" s="8">
         <v>2</v>
       </c>
       <c r="E182" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F182" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>62</v>
@@ -6368,22 +6384,22 @@
     </row>
     <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D183" s="8">
         <v>2</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F183" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>63</v>
@@ -6394,22 +6410,22 @@
     </row>
     <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D184" s="8">
         <v>2</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F184" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>64</v>
@@ -6420,22 +6436,22 @@
     </row>
     <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D185" s="8">
         <v>2</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F185" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>65</v>
@@ -6446,22 +6462,22 @@
     </row>
     <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D186" s="8">
         <v>2</v>
       </c>
       <c r="E186" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F186" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>66</v>
@@ -6472,22 +6488,22 @@
     </row>
     <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D187" s="8">
         <v>2</v>
       </c>
       <c r="E187" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F187" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>67</v>
@@ -6498,22 +6514,22 @@
     </row>
     <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D188" s="8">
         <v>2</v>
       </c>
       <c r="E188" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F188" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>68</v>
@@ -6524,22 +6540,22 @@
     </row>
     <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D189" s="8">
         <v>2</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F189" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>69</v>
@@ -6550,22 +6566,22 @@
     </row>
     <row r="190" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D190" s="8">
         <v>2</v>
       </c>
       <c r="E190" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F190" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G190" s="8" t="s">
         <v>98</v>
@@ -6576,22 +6592,22 @@
     </row>
     <row r="191" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D191" s="8">
         <v>2</v>
       </c>
       <c r="E191" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F191" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G191" s="8" t="s">
         <v>99</v>
@@ -6605,19 +6621,19 @@
     </row>
     <row r="193" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D193" s="8">
         <v>2</v>
       </c>
       <c r="E193" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F193" s="45">
         <v>12607</v>
@@ -6631,19 +6647,19 @@
     </row>
     <row r="194" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D194" s="8">
         <v>2</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F194" s="45">
         <v>12607</v>
@@ -6664,26 +6680,26 @@
     </row>
     <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D196" s="8">
         <v>2</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F196" s="45">
         <v>55096</v>
       </c>
       <c r="H196" s="22"/>
       <c r="I196" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="197" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6691,71 +6707,71 @@
     </row>
     <row r="198" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D198" s="8">
         <v>2</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I198" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D199" s="8">
         <v>2</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I199" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D200" s="8">
         <v>2</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I200" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6765,140 +6781,140 @@
     </row>
     <row r="202" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D202" s="8">
         <v>2</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I202" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D203" s="8">
         <v>2</v>
       </c>
       <c r="E203" s="26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I203" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D204" s="8">
         <v>2</v>
       </c>
       <c r="E204" s="26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I204" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D205" s="8">
         <v>2</v>
       </c>
       <c r="E205" s="26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I205" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D206" s="8">
         <v>2</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I206" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D207" s="8">
         <v>2</v>
       </c>
       <c r="E207" s="26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I207" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
